--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_15_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1385617.486128068</v>
+        <v>1339566.599788759</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12087815.00903386</v>
+        <v>12087815.00903385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9555550.367705444</v>
+        <v>9555550.367705442</v>
       </c>
     </row>
     <row r="9">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>180.6251632217687</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>346.5606280711381</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>346.5606280711381</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>214.9972229324662</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>90.253378272592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>346.5606280711381</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>105.8365033235373</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>126.3193451898731</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I12" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>130.433252870619</v>
       </c>
       <c r="T12" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>126.2445545264434</v>
       </c>
     </row>
     <row r="13">
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3803953834802172</v>
+        <v>18.87030038941811</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I13" t="n">
         <v>114.4764728907715</v>
@@ -1578,7 +1578,7 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>339.8389814708577</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>346.5606280711382</v>
       </c>
-      <c r="D14" t="n">
-        <v>346.5606280711382</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>346.5606280711382</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I14" t="n">
-        <v>90.253378272592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U14" t="n">
-        <v>77.42063824105661</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>110.2941824316017</v>
       </c>
       <c r="H15" t="n">
         <v>88.10357856675394</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>182.2763302767183</v>
@@ -1745,13 +1745,13 @@
         <v>216.236037254839</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>49.98935042574285</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2670350461492</v>
+        <v>54.20873208360462</v>
       </c>
       <c r="V16" t="n">
-        <v>114.8860542804969</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>318.2017479131785</v>
       </c>
       <c r="G17" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="X17" t="n">
-        <v>180.6251632217687</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>4.864156872083009</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>101.6654202321828</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1816537197569</v>
+        <v>159.6181568631066</v>
       </c>
       <c r="T19" t="n">
         <v>226.8285015305278</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>5.982024816384572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I20" t="n">
-        <v>49.12914823970345</v>
+        <v>90.253378272592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T20" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.1687414827087</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>210.3536165779317</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>126.3193451898731</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>39.34717818095077</v>
       </c>
       <c r="T21" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>57.47273092082271</v>
+        <v>216.236037254839</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>195.1816537197569</v>
@@ -2295,19 +2295,19 @@
         <v>226.8285015305278</v>
       </c>
       <c r="U22" t="n">
-        <v>148.3980668129672</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>21.98073859587898</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H23" t="n">
-        <v>90.01839404139731</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>90.253378272592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>371.8145440872303</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436979</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.0589883185792</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>8.856559603433817</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>308.2007615718604</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>212.9367548623747</v>
       </c>
       <c r="U26" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>138.7037743578709</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.76030172410853</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T28" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>124.5279586444923</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H29" t="n">
-        <v>308.0195363226926</v>
+        <v>10.74595610863165</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>142.4310101075951</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>98.66805173283817</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -3000,7 +3000,7 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T31" t="n">
         <v>226.8285015305278</v>
@@ -3009,10 +3009,10 @@
         <v>284.2670350461492</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>168.5276674269138</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>28.73625643377682</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -3046,10 +3046,10 @@
         <v>409.8461786748886</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>71.82214491098763</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>50.74729675237497</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>74.91777947066483</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>346.5606280711382</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>305.2506012050583</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>301.2978897224122</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>66.93109180338681</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>88.10357856675394</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>130.433252870619</v>
+        <v>10.46641381345351</v>
       </c>
       <c r="T36" t="n">
         <v>182.2763302767183</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2670350461492</v>
+        <v>35.7156099070336</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>151.9796629179871</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>318.2017479131783</v>
       </c>
       <c r="G38" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>186.7057329311132</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>71.77881639170828</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>110.5490108352154</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T40" t="n">
         <v>226.8285015305278</v>
@@ -3723,13 +3723,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>175.1465728058271</v>
+        <v>67.64023522531762</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>346.5606280711382</v>
+      </c>
+      <c r="E41" t="n">
         <v>305.2506012050583</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>346.5606280711382</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>346.5606280711382</v>
       </c>
       <c r="X41" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>160.0866360314548</v>
@@ -3827,13 +3827,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>5.596701827378206</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>216.236037254839</v>
       </c>
       <c r="V42" t="n">
-        <v>215.0670001480059</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H43" t="n">
         <v>149.4166814168865</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>195.1816537197569</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>197.2558343040236</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>90.53647570738622</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>305.250601205058</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="F44" t="n">
-        <v>346.5606280711377</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="G44" t="n">
-        <v>346.5606280711377</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>53.08185972234975</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>346.5606280711377</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>20.58795850660803</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>130.433252870619</v>
       </c>
       <c r="T45" t="n">
-        <v>144.3773034333823</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>164.549798704423</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H46" t="n">
         <v>149.4166814168865</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>8.78619398722209</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>686.1200313327581</v>
+        <v>377.7860907215882</v>
       </c>
       <c r="C11" t="n">
-        <v>686.1200313327581</v>
+        <v>377.7860907215882</v>
       </c>
       <c r="D11" t="n">
-        <v>336.058790856861</v>
+        <v>377.7860907215882</v>
       </c>
       <c r="E11" t="n">
-        <v>336.058790856861</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="F11" t="n">
-        <v>336.058790856861</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="G11" t="n">
-        <v>118.8898788038648</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="H11" t="n">
-        <v>118.8898788038648</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="I11" t="n">
         <v>27.72485024569105</v>
       </c>
       <c r="J11" t="n">
-        <v>275.9043523873164</v>
+        <v>58.27700866085739</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9191640964613</v>
+        <v>401.3720304512842</v>
       </c>
       <c r="L11" t="n">
-        <v>500.8514139072142</v>
+        <v>539.3042802620371</v>
       </c>
       <c r="M11" t="n">
-        <v>680.0590364442843</v>
+        <v>718.5119027991071</v>
       </c>
       <c r="N11" t="n">
-        <v>865.9151449776069</v>
+        <v>904.3680113324298</v>
       </c>
       <c r="O11" t="n">
-        <v>1030.578898243316</v>
+        <v>1069.031764598139</v>
       </c>
       <c r="P11" t="n">
-        <v>1143.083538827125</v>
+        <v>1181.536405181948</v>
       </c>
       <c r="Q11" t="n">
         <v>1386.242512284553</v>
@@ -5068,25 +5068,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S11" t="n">
-        <v>1386.242512284553</v>
+        <v>1247.276265121513</v>
       </c>
       <c r="T11" t="n">
-        <v>1386.242512284553</v>
+        <v>1247.276265121513</v>
       </c>
       <c r="U11" t="n">
-        <v>1386.242512284553</v>
+        <v>1247.276265121513</v>
       </c>
       <c r="V11" t="n">
-        <v>1386.242512284553</v>
+        <v>910.2969910174538</v>
       </c>
       <c r="W11" t="n">
-        <v>1036.181271808655</v>
+        <v>560.2357505415566</v>
       </c>
       <c r="X11" t="n">
-        <v>1036.181271808655</v>
+        <v>560.2357505415566</v>
       </c>
       <c r="Y11" t="n">
-        <v>1036.181271808655</v>
+        <v>560.2357505415566</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>438.6200632398446</v>
+        <v>687.7391428733717</v>
       </c>
       <c r="C12" t="n">
-        <v>438.6200632398446</v>
+        <v>526.0354701143265</v>
       </c>
       <c r="D12" t="n">
-        <v>331.7145043271806</v>
+        <v>526.0354701143265</v>
       </c>
       <c r="E12" t="n">
-        <v>184.6864943840519</v>
+        <v>379.0074601711976</v>
       </c>
       <c r="F12" t="n">
-        <v>184.6864943840519</v>
+        <v>244.313662121072</v>
       </c>
       <c r="G12" t="n">
-        <v>57.09119621246281</v>
+        <v>116.7183639494829</v>
       </c>
       <c r="H12" t="n">
-        <v>57.09119621246281</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="I12" t="n">
         <v>27.72485024569105</v>
       </c>
       <c r="J12" t="n">
-        <v>30.6320058419689</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K12" t="n">
-        <v>99.10159288993961</v>
+        <v>261.3807553730458</v>
       </c>
       <c r="L12" t="n">
-        <v>228.8044670363559</v>
+        <v>391.0836295194621</v>
       </c>
       <c r="M12" t="n">
-        <v>395.8890588658433</v>
+        <v>558.1682213489495</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6876989143464</v>
+        <v>741.3820691424884</v>
       </c>
       <c r="O12" t="n">
-        <v>733.2389923159669</v>
+        <v>1013.971692742973</v>
       </c>
       <c r="P12" t="n">
-        <v>1076.334014106394</v>
+        <v>1357.0667145334</v>
       </c>
       <c r="Q12" t="n">
-        <v>1375.879281173584</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="R12" t="n">
         <v>1386.242512284553</v>
@@ -5150,22 +5150,22 @@
         <v>1254.49175180918</v>
       </c>
       <c r="T12" t="n">
-        <v>1070.374246479161</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="U12" t="n">
-        <v>1070.374246479161</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="V12" t="n">
-        <v>1070.374246479161</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="W12" t="n">
-        <v>829.0583777124713</v>
+        <v>1013.17588304249</v>
       </c>
       <c r="X12" t="n">
-        <v>631.1413895902658</v>
+        <v>815.2588949202843</v>
       </c>
       <c r="Y12" t="n">
-        <v>438.6200632398446</v>
+        <v>687.7391428733717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>313.3578584448711</v>
+        <v>787.4501402060827</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7418889065514</v>
+        <v>617.8341706677629</v>
       </c>
       <c r="D13" t="n">
-        <v>143.7418889065514</v>
+        <v>617.8341706677629</v>
       </c>
       <c r="E13" t="n">
-        <v>143.7418889065514</v>
+        <v>465.8251564290817</v>
       </c>
       <c r="F13" t="n">
-        <v>143.7418889065514</v>
+        <v>313.3445014548589</v>
       </c>
       <c r="G13" t="n">
-        <v>143.3576511454603</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="H13" t="n">
         <v>143.3576511454603</v>
@@ -5208,10 +5208,10 @@
         <v>415.5197821238346</v>
       </c>
       <c r="M13" t="n">
-        <v>679.4725500793049</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N13" t="n">
-        <v>940.3835686454988</v>
+        <v>940.3835686454993</v>
       </c>
       <c r="O13" t="n">
         <v>1170.458570641955</v>
@@ -5226,25 +5226,25 @@
         <v>1279.437908752284</v>
       </c>
       <c r="S13" t="n">
-        <v>1082.284723176772</v>
+        <v>1279.437908752284</v>
       </c>
       <c r="T13" t="n">
-        <v>1082.284723176772</v>
+        <v>1279.437908752284</v>
       </c>
       <c r="U13" t="n">
-        <v>1082.284723176772</v>
+        <v>1279.437908752284</v>
       </c>
       <c r="V13" t="n">
-        <v>821.5494187351949</v>
+        <v>1018.702604310707</v>
       </c>
       <c r="W13" t="n">
-        <v>535.3930172525941</v>
+        <v>1018.702604310707</v>
       </c>
       <c r="X13" t="n">
-        <v>535.3930172525941</v>
+        <v>787.4501402060827</v>
       </c>
       <c r="Y13" t="n">
-        <v>313.3578584448711</v>
+        <v>787.4501402060827</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1169.073600231556</v>
+        <v>1032.188633947397</v>
       </c>
       <c r="C14" t="n">
-        <v>819.0123597556592</v>
+        <v>1032.188633947397</v>
       </c>
       <c r="D14" t="n">
-        <v>468.951119279762</v>
+        <v>688.9169354919849</v>
       </c>
       <c r="E14" t="n">
-        <v>468.951119279762</v>
+        <v>688.9169354919849</v>
       </c>
       <c r="F14" t="n">
-        <v>118.8898788038648</v>
+        <v>688.9169354919849</v>
       </c>
       <c r="G14" t="n">
-        <v>118.8898788038648</v>
+        <v>338.8556950160877</v>
       </c>
       <c r="H14" t="n">
-        <v>118.8898788038648</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I14" t="n">
         <v>27.72485024569106</v>
@@ -5284,22 +5284,22 @@
         <v>145.2918203700023</v>
       </c>
       <c r="L14" t="n">
-        <v>283.2240701807552</v>
+        <v>488.3868421604291</v>
       </c>
       <c r="M14" t="n">
-        <v>462.4316927178253</v>
+        <v>667.5944646974991</v>
       </c>
       <c r="N14" t="n">
-        <v>805.5267145082521</v>
+        <v>853.4505732308218</v>
       </c>
       <c r="O14" t="n">
-        <v>997.8015473962001</v>
+        <v>1018.114326496531</v>
       </c>
       <c r="P14" t="n">
-        <v>1340.896569186627</v>
+        <v>1299.337161598266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1386.242512284553</v>
+        <v>1344.683104696192</v>
       </c>
       <c r="R14" t="n">
         <v>1386.242512284553</v>
@@ -5308,22 +5308,22 @@
         <v>1247.276265121513</v>
       </c>
       <c r="T14" t="n">
-        <v>1247.276265121513</v>
+        <v>1032.188633947397</v>
       </c>
       <c r="U14" t="n">
-        <v>1169.073600231556</v>
+        <v>1032.188633947397</v>
       </c>
       <c r="V14" t="n">
-        <v>1169.073600231556</v>
+        <v>1032.188633947397</v>
       </c>
       <c r="W14" t="n">
-        <v>1169.073600231556</v>
+        <v>1032.188633947397</v>
       </c>
       <c r="X14" t="n">
-        <v>1169.073600231556</v>
+        <v>1032.188633947397</v>
       </c>
       <c r="Y14" t="n">
-        <v>1169.073600231556</v>
+        <v>1032.188633947397</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.1438447017827</v>
+        <v>513.9932759848256</v>
       </c>
       <c r="C15" t="n">
-        <v>398.4401719427374</v>
+        <v>513.9932759848256</v>
       </c>
       <c r="D15" t="n">
-        <v>398.4401719427374</v>
+        <v>375.1546389750376</v>
       </c>
       <c r="E15" t="n">
-        <v>251.4121619996086</v>
+        <v>228.1266290319089</v>
       </c>
       <c r="F15" t="n">
-        <v>116.7183639494829</v>
+        <v>228.1266290319089</v>
       </c>
       <c r="G15" t="n">
         <v>116.7183639494829</v>
@@ -5357,52 +5357,52 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J15" t="n">
-        <v>70.96292204725508</v>
+        <v>30.63200584196891</v>
       </c>
       <c r="K15" t="n">
-        <v>139.4325090952258</v>
+        <v>373.7270276323957</v>
       </c>
       <c r="L15" t="n">
-        <v>482.5275308856526</v>
+        <v>716.8220494228226</v>
       </c>
       <c r="M15" t="n">
-        <v>649.61212271514</v>
+        <v>883.90664125231</v>
       </c>
       <c r="N15" t="n">
-        <v>832.8259705086789</v>
+        <v>1067.120489045849</v>
       </c>
       <c r="O15" t="n">
-        <v>982.3772639102995</v>
+        <v>1242.383502115369</v>
       </c>
       <c r="P15" t="n">
-        <v>1086.697245217362</v>
+        <v>1346.703483422432</v>
       </c>
       <c r="Q15" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R15" t="n">
         <v>1386.242512284553</v>
       </c>
       <c r="S15" t="n">
-        <v>1254.49175180918</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T15" t="n">
-        <v>1070.374246479161</v>
+        <v>1202.125006954534</v>
       </c>
       <c r="U15" t="n">
-        <v>851.9540068278088</v>
+        <v>983.7047673031816</v>
       </c>
       <c r="V15" t="n">
-        <v>851.9540068278088</v>
+        <v>755.3091447515155</v>
       </c>
       <c r="W15" t="n">
-        <v>610.6381380611189</v>
+        <v>513.9932759848256</v>
       </c>
       <c r="X15" t="n">
-        <v>560.1438447017827</v>
+        <v>513.9932759848256</v>
       </c>
       <c r="Y15" t="n">
-        <v>560.1438447017827</v>
+        <v>513.9932759848256</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>447.8473203583643</v>
+        <v>617.463289896684</v>
       </c>
       <c r="C16" t="n">
         <v>447.8473203583643</v>
@@ -5460,28 +5460,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R16" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S16" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T16" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U16" t="n">
-        <v>795.1463039382379</v>
+        <v>1331.486217250609</v>
       </c>
       <c r="V16" t="n">
-        <v>679.0997844629885</v>
+        <v>1070.750912809031</v>
       </c>
       <c r="W16" t="n">
-        <v>679.0997844629885</v>
+        <v>1070.750912809031</v>
       </c>
       <c r="X16" t="n">
-        <v>447.8473203583643</v>
+        <v>839.498448704407</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8473203583643</v>
+        <v>617.463289896684</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>377.7860907215883</v>
+        <v>349.1407572286996</v>
       </c>
       <c r="C17" t="n">
-        <v>377.7860907215883</v>
+        <v>349.1407572286996</v>
       </c>
       <c r="D17" t="n">
-        <v>377.7860907215883</v>
+        <v>349.1407572286996</v>
       </c>
       <c r="E17" t="n">
-        <v>377.7860907215883</v>
+        <v>349.1407572286996</v>
       </c>
       <c r="F17" t="n">
-        <v>377.7860907215883</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="G17" t="n">
         <v>27.72485024569106</v>
@@ -5515,19 +5515,19 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J17" t="n">
-        <v>58.27700866085739</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K17" t="n">
-        <v>145.2918203700023</v>
+        <v>362.9191640964613</v>
       </c>
       <c r="L17" t="n">
-        <v>478.6737681536376</v>
+        <v>500.8514139072142</v>
       </c>
       <c r="M17" t="n">
-        <v>657.8813906907077</v>
+        <v>836.3126592154251</v>
       </c>
       <c r="N17" t="n">
-        <v>843.7374992240303</v>
+        <v>1022.168767748748</v>
       </c>
       <c r="O17" t="n">
         <v>1186.832521014457</v>
@@ -5542,25 +5542,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S17" t="n">
-        <v>1247.276265121513</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T17" t="n">
-        <v>1247.276265121513</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U17" t="n">
-        <v>1247.276265121513</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V17" t="n">
-        <v>910.2969910174538</v>
+        <v>1049.263238180494</v>
       </c>
       <c r="W17" t="n">
-        <v>910.2969910174538</v>
+        <v>699.2019977045968</v>
       </c>
       <c r="X17" t="n">
-        <v>727.8473311974855</v>
+        <v>699.2019977045968</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.7860907215883</v>
+        <v>699.2019977045968</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>292.1208666736078</v>
+        <v>446.6270196850879</v>
       </c>
       <c r="C18" t="n">
-        <v>130.4171939145625</v>
+        <v>284.9233469260426</v>
       </c>
       <c r="D18" t="n">
-        <v>27.72485024569106</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="E18" t="n">
-        <v>27.72485024569106</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="F18" t="n">
-        <v>27.72485024569106</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="G18" t="n">
-        <v>27.72485024569106</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="H18" t="n">
-        <v>27.72485024569106</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="I18" t="n">
         <v>27.72485024569106</v>
@@ -5597,16 +5597,16 @@
         <v>30.63200584196891</v>
       </c>
       <c r="K18" t="n">
-        <v>171.0269379278992</v>
+        <v>99.10159288993961</v>
       </c>
       <c r="L18" t="n">
-        <v>514.121959718326</v>
+        <v>228.8044670363559</v>
       </c>
       <c r="M18" t="n">
-        <v>681.2065515478134</v>
+        <v>395.8890588658433</v>
       </c>
       <c r="N18" t="n">
-        <v>864.4203993413523</v>
+        <v>738.9840806562702</v>
       </c>
       <c r="O18" t="n">
         <v>1013.971692742973</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.7967434179283</v>
+        <v>197.3408197840108</v>
       </c>
       <c r="C19" t="n">
-        <v>180.7967434179283</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="D19" t="n">
         <v>27.72485024569106</v>
@@ -5676,16 +5676,16 @@
         <v>34.69382298257756</v>
       </c>
       <c r="K19" t="n">
-        <v>176.4786849811308</v>
+        <v>176.4786849811305</v>
       </c>
       <c r="L19" t="n">
-        <v>415.5197821238347</v>
+        <v>415.5197821238346</v>
       </c>
       <c r="M19" t="n">
-        <v>679.4725500793053</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N19" t="n">
-        <v>940.3835686454991</v>
+        <v>940.3835686454992</v>
       </c>
       <c r="O19" t="n">
         <v>1170.458570641955</v>
@@ -5700,25 +5700,25 @@
         <v>1279.437908752285</v>
       </c>
       <c r="S19" t="n">
-        <v>1082.284723176773</v>
+        <v>1118.207447274399</v>
       </c>
       <c r="T19" t="n">
-        <v>853.165024661088</v>
+        <v>889.0877487587145</v>
       </c>
       <c r="U19" t="n">
-        <v>853.165024661088</v>
+        <v>889.0877487587145</v>
       </c>
       <c r="V19" t="n">
-        <v>592.4297202195105</v>
+        <v>889.0877487587145</v>
       </c>
       <c r="W19" t="n">
-        <v>592.4297202195105</v>
+        <v>602.9313472761136</v>
       </c>
       <c r="X19" t="n">
-        <v>586.3872709100311</v>
+        <v>602.9313472761136</v>
       </c>
       <c r="Y19" t="n">
-        <v>364.3521121023082</v>
+        <v>380.8961884683906</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>427.411492983915</v>
+        <v>780.0819640501586</v>
       </c>
       <c r="C20" t="n">
-        <v>77.35025250801777</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="D20" t="n">
-        <v>77.35025250801777</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="E20" t="n">
-        <v>77.35025250801777</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="F20" t="n">
-        <v>77.35025250801777</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="G20" t="n">
-        <v>77.35025250801777</v>
+        <v>430.0207235742614</v>
       </c>
       <c r="H20" t="n">
-        <v>77.35025250801777</v>
+        <v>118.8898788038648</v>
       </c>
       <c r="I20" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J20" t="n">
-        <v>58.27700866085739</v>
+        <v>158.9085821791602</v>
       </c>
       <c r="K20" t="n">
-        <v>145.2918203700023</v>
+        <v>245.9233938883051</v>
       </c>
       <c r="L20" t="n">
-        <v>488.3868421604291</v>
+        <v>383.8556436990581</v>
       </c>
       <c r="M20" t="n">
-        <v>831.4818639508559</v>
+        <v>563.0632662361281</v>
       </c>
       <c r="N20" t="n">
-        <v>1063.728175337108</v>
+        <v>748.9193747694508</v>
       </c>
       <c r="O20" t="n">
-        <v>1228.391928602818</v>
+        <v>913.58312803516</v>
       </c>
       <c r="P20" t="n">
-        <v>1340.896569186627</v>
+        <v>1026.087768618969</v>
       </c>
       <c r="Q20" t="n">
-        <v>1386.242512284553</v>
+        <v>1344.683104696192</v>
       </c>
       <c r="R20" t="n">
         <v>1386.242512284553</v>
@@ -5782,22 +5782,22 @@
         <v>1247.276265121513</v>
       </c>
       <c r="T20" t="n">
-        <v>1032.188633947397</v>
+        <v>1247.276265121513</v>
       </c>
       <c r="U20" t="n">
-        <v>777.4727334598122</v>
+        <v>992.560364633928</v>
       </c>
       <c r="V20" t="n">
-        <v>777.4727334598122</v>
+        <v>992.560364633928</v>
       </c>
       <c r="W20" t="n">
-        <v>777.4727334598122</v>
+        <v>780.0819640501586</v>
       </c>
       <c r="X20" t="n">
-        <v>777.4727334598122</v>
+        <v>780.0819640501586</v>
       </c>
       <c r="Y20" t="n">
-        <v>427.411492983915</v>
+        <v>780.0819640501586</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>317.0238211763254</v>
+        <v>694.240453090886</v>
       </c>
       <c r="C21" t="n">
-        <v>155.3201484172801</v>
+        <v>694.240453090886</v>
       </c>
       <c r="D21" t="n">
-        <v>155.3201484172801</v>
+        <v>555.4018160810981</v>
       </c>
       <c r="E21" t="n">
-        <v>155.3201484172801</v>
+        <v>408.3738061379694</v>
       </c>
       <c r="F21" t="n">
-        <v>155.3201484172801</v>
+        <v>273.6800080878437</v>
       </c>
       <c r="G21" t="n">
-        <v>27.72485024569106</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="H21" t="n">
-        <v>27.72485024569106</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="I21" t="n">
         <v>27.72485024569106</v>
@@ -5837,19 +5837,19 @@
         <v>261.3807553730458</v>
       </c>
       <c r="L21" t="n">
-        <v>391.0836295194621</v>
+        <v>482.5275308856526</v>
       </c>
       <c r="M21" t="n">
-        <v>681.2065515478134</v>
+        <v>649.61212271514</v>
       </c>
       <c r="N21" t="n">
-        <v>864.4203993413523</v>
+        <v>832.8259705086789</v>
       </c>
       <c r="O21" t="n">
-        <v>1013.971692742973</v>
+        <v>982.3772639102995</v>
       </c>
       <c r="P21" t="n">
-        <v>1357.0667145334</v>
+        <v>1086.697245217362</v>
       </c>
       <c r="Q21" t="n">
         <v>1386.242512284553</v>
@@ -5858,25 +5858,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S21" t="n">
-        <v>1386.242512284553</v>
+        <v>1346.49788785935</v>
       </c>
       <c r="T21" t="n">
-        <v>1202.125006954534</v>
+        <v>1346.49788785935</v>
       </c>
       <c r="U21" t="n">
-        <v>1144.071743398148</v>
+        <v>1128.077648207997</v>
       </c>
       <c r="V21" t="n">
-        <v>915.6761208464817</v>
+        <v>1128.077648207997</v>
       </c>
       <c r="W21" t="n">
-        <v>674.3602520797917</v>
+        <v>886.7617794413072</v>
       </c>
       <c r="X21" t="n">
-        <v>476.4432639575863</v>
+        <v>886.7617794413072</v>
       </c>
       <c r="Y21" t="n">
-        <v>476.4432639575863</v>
+        <v>694.240453090886</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.72485024569106</v>
+        <v>197.3408197840108</v>
       </c>
       <c r="C22" t="n">
         <v>27.72485024569106</v>
@@ -5904,25 +5904,25 @@
         <v>27.72485024569106</v>
       </c>
       <c r="H22" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569092</v>
       </c>
       <c r="I22" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569092</v>
       </c>
       <c r="J22" t="n">
-        <v>34.69382298257744</v>
+        <v>34.69382298257733</v>
       </c>
       <c r="K22" t="n">
-        <v>176.4786849811306</v>
+        <v>176.4786849811305</v>
       </c>
       <c r="L22" t="n">
-        <v>415.5197821238346</v>
+        <v>415.5197821238344</v>
       </c>
       <c r="M22" t="n">
-        <v>679.4725500793053</v>
+        <v>679.4725500793052</v>
       </c>
       <c r="N22" t="n">
-        <v>940.3835686454992</v>
+        <v>940.3835686454991</v>
       </c>
       <c r="O22" t="n">
         <v>1170.458570641955</v>
@@ -5934,28 +5934,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R22" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S22" t="n">
-        <v>1082.284723176773</v>
+        <v>1189.089326709041</v>
       </c>
       <c r="T22" t="n">
-        <v>853.165024661088</v>
+        <v>959.9696281933561</v>
       </c>
       <c r="U22" t="n">
-        <v>703.2679874762725</v>
+        <v>672.8312089548215</v>
       </c>
       <c r="V22" t="n">
-        <v>442.5326830346951</v>
+        <v>672.8312089548215</v>
       </c>
       <c r="W22" t="n">
-        <v>442.5326830346951</v>
+        <v>650.6284426963579</v>
       </c>
       <c r="X22" t="n">
-        <v>211.2802189300709</v>
+        <v>419.3759785917337</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.2802189300709</v>
+        <v>197.3408197840108</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>926.5166431427826</v>
+        <v>1279.046920015234</v>
       </c>
       <c r="C23" t="n">
-        <v>926.5166431427826</v>
+        <v>1279.046920015234</v>
       </c>
       <c r="D23" t="n">
-        <v>553.6926783700062</v>
+        <v>1279.046920015234</v>
       </c>
       <c r="E23" t="n">
-        <v>553.6926783700062</v>
+        <v>1279.046920015234</v>
       </c>
       <c r="F23" t="n">
-        <v>139.5414876801765</v>
+        <v>864.8957293254048</v>
       </c>
       <c r="G23" t="n">
-        <v>139.5414876801765</v>
+        <v>450.9096902598607</v>
       </c>
       <c r="H23" t="n">
-        <v>48.61381693129037</v>
+        <v>139.7788454894641</v>
       </c>
       <c r="I23" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J23" t="n">
-        <v>79.1659753464567</v>
+        <v>296.7933190729157</v>
       </c>
       <c r="K23" t="n">
-        <v>166.1807870556016</v>
+        <v>383.8081307820606</v>
       </c>
       <c r="L23" t="n">
-        <v>304.1130368663546</v>
+        <v>577.2168093033159</v>
       </c>
       <c r="M23" t="n">
-        <v>905.7090213910728</v>
+        <v>756.424431840386</v>
       </c>
       <c r="N23" t="n">
-        <v>1091.565129924395</v>
+        <v>942.2805403737086</v>
       </c>
       <c r="O23" t="n">
-        <v>1693.161114449114</v>
+        <v>1543.876524898427</v>
       </c>
       <c r="P23" t="n">
         <v>2070.536102898934</v>
@@ -6016,25 +6016,25 @@
         <v>2430.690846564518</v>
       </c>
       <c r="S23" t="n">
-        <v>2291.724599401478</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="T23" t="n">
-        <v>2076.636968227363</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="U23" t="n">
-        <v>2076.636968227363</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="V23" t="n">
-        <v>2076.636968227363</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="W23" t="n">
-        <v>1714.102038084964</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="X23" t="n">
-        <v>1714.102038084964</v>
+        <v>2048.660706086011</v>
       </c>
       <c r="Y23" t="n">
-        <v>1320.560182660802</v>
+        <v>1673.090459533254</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>876.833092535531</v>
+        <v>876.8330925355311</v>
       </c>
       <c r="C24" t="n">
-        <v>715.1294197764857</v>
+        <v>715.129419776486</v>
       </c>
       <c r="D24" t="n">
-        <v>576.2907827666978</v>
+        <v>576.2907827666975</v>
       </c>
       <c r="E24" t="n">
-        <v>429.2627728235686</v>
+        <v>429.2627728235687</v>
       </c>
       <c r="F24" t="n">
-        <v>294.568974773443</v>
+        <v>294.5689747734431</v>
       </c>
       <c r="G24" t="n">
         <v>166.973676601854</v>
@@ -6068,25 +6068,25 @@
         <v>48.61381693129037</v>
       </c>
       <c r="J24" t="n">
-        <v>51.52097252756822</v>
+        <v>213.8001350106744</v>
       </c>
       <c r="K24" t="n">
-        <v>119.9905595755389</v>
+        <v>622.6364820938338</v>
       </c>
       <c r="L24" t="n">
-        <v>249.6934337219552</v>
+        <v>1106.751050815051</v>
       </c>
       <c r="M24" t="n">
-        <v>673.778284106299</v>
+        <v>1273.835642644538</v>
       </c>
       <c r="N24" t="n">
-        <v>1275.374268631017</v>
+        <v>1457.049490438077</v>
       </c>
       <c r="O24" t="n">
-        <v>1876.970253155735</v>
+        <v>1606.600783839698</v>
       </c>
       <c r="P24" t="n">
-        <v>2391.151817702397</v>
+        <v>2120.782348386359</v>
       </c>
       <c r="Q24" t="n">
         <v>2420.32761545355</v>
@@ -6101,13 +6101,13 @@
         <v>2114.822580759127</v>
       </c>
       <c r="U24" t="n">
-        <v>1896.402341107774</v>
+        <v>1896.402341107775</v>
       </c>
       <c r="V24" t="n">
-        <v>1668.006718556108</v>
+        <v>1668.006718556109</v>
       </c>
       <c r="W24" t="n">
-        <v>1426.690849789418</v>
+        <v>1426.690849789419</v>
       </c>
       <c r="X24" t="n">
         <v>1228.773861667213</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>355.6631080035285</v>
+        <v>216.5835272367382</v>
       </c>
       <c r="C25" t="n">
-        <v>186.0471384652087</v>
+        <v>216.5835272367382</v>
       </c>
       <c r="D25" t="n">
-        <v>186.0471384652087</v>
+        <v>216.5835272367382</v>
       </c>
       <c r="E25" t="n">
-        <v>186.0471384652087</v>
+        <v>216.5835272367382</v>
       </c>
       <c r="F25" t="n">
-        <v>186.0471384652087</v>
+        <v>216.5835272367382</v>
       </c>
       <c r="G25" t="n">
         <v>48.61381693129037</v>
@@ -6171,28 +6171,28 @@
         <v>1407.131478970152</v>
       </c>
       <c r="R25" t="n">
-        <v>1300.326875437884</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="S25" t="n">
-        <v>1103.173689862372</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="T25" t="n">
-        <v>874.0539913466873</v>
+        <v>1178.011780454467</v>
       </c>
       <c r="U25" t="n">
-        <v>586.9155721081527</v>
+        <v>1178.011780454467</v>
       </c>
       <c r="V25" t="n">
-        <v>586.9155721081527</v>
+        <v>917.27647601289</v>
       </c>
       <c r="W25" t="n">
-        <v>586.9155721081527</v>
+        <v>631.1200745302892</v>
       </c>
       <c r="X25" t="n">
-        <v>355.6631080035285</v>
+        <v>622.1740547288409</v>
       </c>
       <c r="Y25" t="n">
-        <v>355.6631080035285</v>
+        <v>400.138895921118</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1065.844282173217</v>
+        <v>1217.522731061089</v>
       </c>
       <c r="C26" t="n">
-        <v>1065.844282173217</v>
+        <v>835.5889723938965</v>
       </c>
       <c r="D26" t="n">
-        <v>1065.844282173217</v>
+        <v>462.76500762112</v>
       </c>
       <c r="E26" t="n">
-        <v>671.0585622793237</v>
+        <v>462.76500762112</v>
       </c>
       <c r="F26" t="n">
-        <v>671.0585622793237</v>
+        <v>48.61381693129037</v>
       </c>
       <c r="G26" t="n">
-        <v>359.744661701687</v>
+        <v>48.61381693129037</v>
       </c>
       <c r="H26" t="n">
         <v>48.61381693129037</v>
@@ -6232,13 +6232,13 @@
         <v>583.3559330346906</v>
       </c>
       <c r="L26" t="n">
-        <v>1184.951917559409</v>
+        <v>1032.931154308375</v>
       </c>
       <c r="M26" t="n">
-        <v>1364.159540096479</v>
+        <v>1212.138776845445</v>
       </c>
       <c r="N26" t="n">
-        <v>1550.015648629801</v>
+        <v>1397.994885378768</v>
       </c>
       <c r="O26" t="n">
         <v>1999.590869903486</v>
@@ -6259,19 +6259,19 @@
         <v>2076.636968227363</v>
       </c>
       <c r="U26" t="n">
-        <v>1821.921067739778</v>
+        <v>2076.636968227363</v>
       </c>
       <c r="V26" t="n">
-        <v>1821.921067739778</v>
+        <v>1739.657694123304</v>
       </c>
       <c r="W26" t="n">
-        <v>1459.386137597379</v>
+        <v>1599.552871539596</v>
       </c>
       <c r="X26" t="n">
-        <v>1459.386137597379</v>
+        <v>1217.522731061089</v>
       </c>
       <c r="Y26" t="n">
-        <v>1065.844282173217</v>
+        <v>1217.522731061089</v>
       </c>
     </row>
     <row r="27">
@@ -6284,55 +6284,55 @@
         <v>876.8330925355307</v>
       </c>
       <c r="C27" t="n">
-        <v>715.1294197764854</v>
+        <v>715.1294197764855</v>
       </c>
       <c r="D27" t="n">
-        <v>576.2907827666975</v>
+        <v>576.2907827666977</v>
       </c>
       <c r="E27" t="n">
-        <v>429.2627728235686</v>
+        <v>429.2627728235689</v>
       </c>
       <c r="F27" t="n">
-        <v>294.568974773443</v>
+        <v>294.5689747734432</v>
       </c>
       <c r="G27" t="n">
-        <v>166.973676601854</v>
+        <v>166.9736766018541</v>
       </c>
       <c r="H27" t="n">
-        <v>77.98016289806213</v>
+        <v>77.98016289806219</v>
       </c>
       <c r="I27" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J27" t="n">
-        <v>51.52097252756822</v>
+        <v>213.8001350106744</v>
       </c>
       <c r="K27" t="n">
-        <v>119.9905595755389</v>
+        <v>622.6364820938338</v>
       </c>
       <c r="L27" t="n">
-        <v>249.6934337219552</v>
+        <v>1106.751050815051</v>
       </c>
       <c r="M27" t="n">
-        <v>684.1415152172672</v>
+        <v>1273.835642644538</v>
       </c>
       <c r="N27" t="n">
-        <v>1285.737499741985</v>
+        <v>1457.049490438077</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.333484266704</v>
+        <v>1606.600783839698</v>
       </c>
       <c r="P27" t="n">
-        <v>2401.515048813365</v>
+        <v>2120.782348386359</v>
       </c>
       <c r="Q27" t="n">
-        <v>2430.690846564518</v>
+        <v>2420.32761545355</v>
       </c>
       <c r="R27" t="n">
         <v>2430.690846564518</v>
       </c>
       <c r="S27" t="n">
-        <v>2298.940086089145</v>
+        <v>2298.940086089146</v>
       </c>
       <c r="T27" t="n">
         <v>2114.822580759127</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.3016796418474</v>
+        <v>218.2297864696101</v>
       </c>
       <c r="C28" t="n">
-        <v>201.6857101035276</v>
+        <v>48.61381693129037</v>
       </c>
       <c r="D28" t="n">
         <v>48.61381693129037</v>
@@ -6408,28 +6408,28 @@
         <v>1407.131478970152</v>
       </c>
       <c r="R28" t="n">
-        <v>1314.444305511457</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="S28" t="n">
-        <v>1314.444305511457</v>
+        <v>1209.97829339464</v>
       </c>
       <c r="T28" t="n">
-        <v>1085.324606995772</v>
+        <v>980.8585948789555</v>
       </c>
       <c r="U28" t="n">
-        <v>1085.324606995772</v>
+        <v>855.072778066337</v>
       </c>
       <c r="V28" t="n">
-        <v>824.5893025541945</v>
+        <v>855.072778066337</v>
       </c>
       <c r="W28" t="n">
-        <v>824.5893025541945</v>
+        <v>855.072778066337</v>
       </c>
       <c r="X28" t="n">
-        <v>593.3368384495703</v>
+        <v>623.8203139617128</v>
       </c>
       <c r="Y28" t="n">
-        <v>371.3016796418474</v>
+        <v>401.7851551539899</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>754.5303815955801</v>
+        <v>2037.148991140356</v>
       </c>
       <c r="C29" t="n">
-        <v>754.5303815955801</v>
+        <v>1655.215232473164</v>
       </c>
       <c r="D29" t="n">
-        <v>754.5303815955801</v>
+        <v>1282.391267700387</v>
       </c>
       <c r="E29" t="n">
-        <v>359.744661701687</v>
+        <v>887.6055478064941</v>
       </c>
       <c r="F29" t="n">
-        <v>359.744661701687</v>
+        <v>473.4543571166644</v>
       </c>
       <c r="G29" t="n">
-        <v>359.744661701687</v>
+        <v>59.46831805112032</v>
       </c>
       <c r="H29" t="n">
         <v>48.61381693129037</v>
@@ -6463,52 +6463,52 @@
         <v>48.61381693129037</v>
       </c>
       <c r="J29" t="n">
-        <v>79.1659753464567</v>
+        <v>296.7933190729157</v>
       </c>
       <c r="K29" t="n">
-        <v>583.3559330346906</v>
+        <v>439.2845594925629</v>
       </c>
       <c r="L29" t="n">
-        <v>721.2881828454435</v>
+        <v>577.2168093033159</v>
       </c>
       <c r="M29" t="n">
-        <v>1322.884167370162</v>
+        <v>756.424431840386</v>
       </c>
       <c r="N29" t="n">
-        <v>1508.740275903484</v>
+        <v>942.2805403737086</v>
       </c>
       <c r="O29" t="n">
-        <v>1673.404029169194</v>
+        <v>1543.876524898427</v>
       </c>
       <c r="P29" t="n">
-        <v>2200.063607169701</v>
+        <v>2070.536102898934</v>
       </c>
       <c r="Q29" t="n">
-        <v>2430.690846564518</v>
+        <v>2389.131438976157</v>
       </c>
       <c r="R29" t="n">
         <v>2430.690846564518</v>
       </c>
       <c r="S29" t="n">
-        <v>2291.724599401478</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="T29" t="n">
-        <v>2291.724599401478</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="U29" t="n">
-        <v>2037.008698913894</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.138991734505</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="W29" t="n">
-        <v>1530.604061592106</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="X29" t="n">
-        <v>1148.573921113599</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="Y29" t="n">
-        <v>1148.573921113599</v>
+        <v>2037.148991140356</v>
       </c>
     </row>
     <row r="30">
@@ -6521,19 +6521,19 @@
         <v>876.8330925355307</v>
       </c>
       <c r="C30" t="n">
-        <v>715.1294197764855</v>
+        <v>715.1294197764854</v>
       </c>
       <c r="D30" t="n">
-        <v>576.2907827666977</v>
+        <v>576.2907827666975</v>
       </c>
       <c r="E30" t="n">
-        <v>429.2627728235689</v>
+        <v>429.2627728235686</v>
       </c>
       <c r="F30" t="n">
-        <v>294.5689747734432</v>
+        <v>294.568974773443</v>
       </c>
       <c r="G30" t="n">
-        <v>166.9736766018541</v>
+        <v>166.973676601854</v>
       </c>
       <c r="H30" t="n">
         <v>77.98016289806213</v>
@@ -6542,34 +6542,34 @@
         <v>48.61381693129037</v>
       </c>
       <c r="J30" t="n">
-        <v>51.52097252756822</v>
+        <v>213.8001350106744</v>
       </c>
       <c r="K30" t="n">
-        <v>376.9908181303953</v>
+        <v>282.2697220586451</v>
       </c>
       <c r="L30" t="n">
-        <v>506.6936922768116</v>
+        <v>883.8657065833634</v>
       </c>
       <c r="M30" t="n">
-        <v>673.778284106299</v>
+        <v>1485.461691108082</v>
       </c>
       <c r="N30" t="n">
-        <v>1275.374268631017</v>
+        <v>1695.599082981584</v>
       </c>
       <c r="O30" t="n">
-        <v>1876.970253155735</v>
+        <v>2297.195067506302</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.151817702397</v>
+        <v>2401.515048813365</v>
       </c>
       <c r="Q30" t="n">
-        <v>2420.32761545355</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="R30" t="n">
         <v>2430.690846564518</v>
       </c>
       <c r="S30" t="n">
-        <v>2298.940086089146</v>
+        <v>2298.940086089145</v>
       </c>
       <c r="T30" t="n">
         <v>2114.822580759127</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>353.1034861441944</v>
+        <v>300.7591706255518</v>
       </c>
       <c r="C31" t="n">
-        <v>353.1034861441944</v>
+        <v>300.7591706255518</v>
       </c>
       <c r="D31" t="n">
-        <v>353.1034861441944</v>
+        <v>300.7591706255518</v>
       </c>
       <c r="E31" t="n">
         <v>201.0944719055132</v>
@@ -6648,25 +6648,25 @@
         <v>1300.326875437884</v>
       </c>
       <c r="S31" t="n">
-        <v>1300.326875437884</v>
+        <v>1103.173689862372</v>
       </c>
       <c r="T31" t="n">
-        <v>1071.207176922199</v>
+        <v>874.0539913466873</v>
       </c>
       <c r="U31" t="n">
-        <v>784.0687576836647</v>
+        <v>586.9155721081527</v>
       </c>
       <c r="V31" t="n">
-        <v>523.3334532420872</v>
+        <v>586.9155721081527</v>
       </c>
       <c r="W31" t="n">
-        <v>353.1034861441944</v>
+        <v>300.7591706255518</v>
       </c>
       <c r="X31" t="n">
-        <v>353.1034861441944</v>
+        <v>300.7591706255518</v>
       </c>
       <c r="Y31" t="n">
-        <v>353.1034861441944</v>
+        <v>300.7591706255518</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1300.563288230837</v>
+        <v>2037.148991140356</v>
       </c>
       <c r="C32" t="n">
-        <v>1300.563288230837</v>
+        <v>1655.215232473164</v>
       </c>
       <c r="D32" t="n">
-        <v>1271.536766580557</v>
+        <v>1655.215232473164</v>
       </c>
       <c r="E32" t="n">
-        <v>876.7510466866642</v>
+        <v>1260.429512579271</v>
       </c>
       <c r="F32" t="n">
-        <v>462.5998559968345</v>
+        <v>846.2783218894408</v>
       </c>
       <c r="G32" t="n">
-        <v>48.61381693129037</v>
+        <v>432.2922828238967</v>
       </c>
       <c r="H32" t="n">
-        <v>48.61381693129037</v>
+        <v>121.1614380535001</v>
       </c>
       <c r="I32" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J32" t="n">
-        <v>79.1659753464567</v>
+        <v>296.7933190729157</v>
       </c>
       <c r="K32" t="n">
-        <v>166.1807870556016</v>
+        <v>453.8284287639236</v>
       </c>
       <c r="L32" t="n">
-        <v>304.1130368663546</v>
+        <v>591.7606785746766</v>
       </c>
       <c r="M32" t="n">
-        <v>777.6167871079992</v>
+        <v>1193.356663099395</v>
       </c>
       <c r="N32" t="n">
         <v>1379.212771632717</v>
@@ -6727,25 +6727,25 @@
         <v>2430.690846564518</v>
       </c>
       <c r="S32" t="n">
-        <v>2291.724599401478</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="T32" t="n">
-        <v>2076.636968227363</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="U32" t="n">
-        <v>2076.636968227363</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="V32" t="n">
-        <v>2076.636968227363</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="W32" t="n">
-        <v>2076.636968227363</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="X32" t="n">
-        <v>1694.606827748856</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="Y32" t="n">
-        <v>1694.606827748856</v>
+        <v>2037.148991140356</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>48.61381693129037</v>
       </c>
       <c r="J33" t="n">
-        <v>213.8001350106744</v>
+        <v>51.52097252756822</v>
       </c>
       <c r="K33" t="n">
-        <v>282.2697220586451</v>
+        <v>119.9905595755389</v>
       </c>
       <c r="L33" t="n">
-        <v>411.9725962050614</v>
+        <v>517.0569233877793</v>
       </c>
       <c r="M33" t="n">
-        <v>821.7909515214401</v>
+        <v>684.1415152172667</v>
       </c>
       <c r="N33" t="n">
-        <v>1005.004799314979</v>
+        <v>1285.737499741985</v>
       </c>
       <c r="O33" t="n">
-        <v>1606.600783839697</v>
+        <v>1887.333484266703</v>
       </c>
       <c r="P33" t="n">
-        <v>2120.782348386359</v>
+        <v>2401.515048813365</v>
       </c>
       <c r="Q33" t="n">
-        <v>2420.32761545355</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="R33" t="n">
         <v>2430.690846564518</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.61381693129037</v>
+        <v>788.6948171081054</v>
       </c>
       <c r="C34" t="n">
-        <v>48.61381693129037</v>
+        <v>788.6948171081054</v>
       </c>
       <c r="D34" t="n">
-        <v>48.61381693129037</v>
+        <v>635.6229239358681</v>
       </c>
       <c r="E34" t="n">
-        <v>48.61381693129037</v>
+        <v>635.6229239358681</v>
       </c>
       <c r="F34" t="n">
-        <v>48.61381693129037</v>
+        <v>483.1422689616453</v>
       </c>
       <c r="G34" t="n">
-        <v>48.61381693129037</v>
+        <v>315.1725586561975</v>
       </c>
       <c r="H34" t="n">
-        <v>48.61381693129037</v>
+        <v>164.2466178310596</v>
       </c>
       <c r="I34" t="n">
         <v>48.61381693129037</v>
@@ -6885,25 +6885,25 @@
         <v>1300.326875437884</v>
       </c>
       <c r="S34" t="n">
-        <v>1103.173689862372</v>
+        <v>1300.326875437884</v>
       </c>
       <c r="T34" t="n">
-        <v>1027.499165144529</v>
+        <v>1071.207176922199</v>
       </c>
       <c r="U34" t="n">
-        <v>740.360745905994</v>
+        <v>1071.207176922199</v>
       </c>
       <c r="V34" t="n">
-        <v>740.360745905994</v>
+        <v>1071.207176922199</v>
       </c>
       <c r="W34" t="n">
-        <v>454.2043444233931</v>
+        <v>1071.207176922199</v>
       </c>
       <c r="X34" t="n">
-        <v>454.2043444233931</v>
+        <v>839.9547128175751</v>
       </c>
       <c r="Y34" t="n">
-        <v>232.1691856156702</v>
+        <v>839.9547128175751</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.72485024569106</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="C35" t="n">
-        <v>27.72485024569106</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="D35" t="n">
-        <v>27.72485024569106</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="E35" t="n">
-        <v>27.72485024569106</v>
+        <v>686.1200313327583</v>
       </c>
       <c r="F35" t="n">
-        <v>27.72485024569106</v>
+        <v>377.7860907215883</v>
       </c>
       <c r="G35" t="n">
         <v>27.72485024569106</v>
@@ -6940,16 +6940,16 @@
         <v>58.27700866085739</v>
       </c>
       <c r="K35" t="n">
-        <v>145.2918203700023</v>
+        <v>287.4828014766658</v>
       </c>
       <c r="L35" t="n">
-        <v>283.2240701807552</v>
+        <v>425.4150512874188</v>
       </c>
       <c r="M35" t="n">
-        <v>462.4316927178253</v>
+        <v>604.6226738244889</v>
       </c>
       <c r="N35" t="n">
-        <v>648.2878012511479</v>
+        <v>790.4787823578115</v>
       </c>
       <c r="O35" t="n">
         <v>955.1425356235208</v>
@@ -6964,25 +6964,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S35" t="n">
-        <v>1247.276265121513</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T35" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U35" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V35" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="W35" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="X35" t="n">
-        <v>727.8473311974855</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.7860907215883</v>
+        <v>1386.242512284553</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>184.3255273872474</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="C36" t="n">
-        <v>116.7183639494829</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="D36" t="n">
-        <v>116.7183639494829</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="E36" t="n">
-        <v>116.7183639494829</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="F36" t="n">
-        <v>116.7183639494829</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="G36" t="n">
-        <v>116.7183639494829</v>
+        <v>146.0847099162547</v>
       </c>
       <c r="H36" t="n">
-        <v>27.72485024569106</v>
+        <v>57.09119621246282</v>
       </c>
       <c r="I36" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J36" t="n">
-        <v>192.9111683250751</v>
+        <v>30.63200584196891</v>
       </c>
       <c r="K36" t="n">
-        <v>261.3807553730458</v>
+        <v>373.7270276323957</v>
       </c>
       <c r="L36" t="n">
-        <v>391.0836295194621</v>
+        <v>503.429901778812</v>
       </c>
       <c r="M36" t="n">
-        <v>558.1682213489495</v>
+        <v>670.5144936082994</v>
       </c>
       <c r="N36" t="n">
-        <v>741.3820691424884</v>
+        <v>853.7283414018383</v>
       </c>
       <c r="O36" t="n">
-        <v>890.9333625441091</v>
+        <v>1003.279634803459</v>
       </c>
       <c r="P36" t="n">
-        <v>1234.028384334536</v>
+        <v>1346.374656593886</v>
       </c>
       <c r="Q36" t="n">
         <v>1375.879281173585</v>
@@ -7043,25 +7043,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S36" t="n">
-        <v>1254.49175180918</v>
+        <v>1375.670377119448</v>
       </c>
       <c r="T36" t="n">
-        <v>1070.374246479161</v>
+        <v>1191.55287178943</v>
       </c>
       <c r="U36" t="n">
-        <v>851.9540068278088</v>
+        <v>973.132632138077</v>
       </c>
       <c r="V36" t="n">
-        <v>623.5583842761428</v>
+        <v>744.737009586411</v>
       </c>
       <c r="W36" t="n">
-        <v>382.2425155094528</v>
+        <v>503.421140819721</v>
       </c>
       <c r="X36" t="n">
-        <v>184.3255273872474</v>
+        <v>305.5041526975156</v>
       </c>
       <c r="Y36" t="n">
-        <v>184.3255273872474</v>
+        <v>305.5041526975156</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.3408197840108</v>
+        <v>1089.430834199507</v>
       </c>
       <c r="C37" t="n">
-        <v>27.72485024569106</v>
+        <v>919.8148646611872</v>
       </c>
       <c r="D37" t="n">
-        <v>27.72485024569106</v>
+        <v>766.7429714889499</v>
       </c>
       <c r="E37" t="n">
-        <v>27.72485024569106</v>
+        <v>614.7339572502688</v>
       </c>
       <c r="F37" t="n">
-        <v>27.72485024569106</v>
+        <v>462.2533022760459</v>
       </c>
       <c r="G37" t="n">
-        <v>27.72485024569106</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="H37" t="n">
-        <v>27.72485024569106</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I37" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J37" t="n">
-        <v>34.69382298257756</v>
+        <v>34.69382298257744</v>
       </c>
       <c r="K37" t="n">
-        <v>176.4786849811305</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L37" t="n">
-        <v>415.5197821238346</v>
+        <v>415.5197821238347</v>
       </c>
       <c r="M37" t="n">
-        <v>679.4725500793054</v>
+        <v>679.4725500793053</v>
       </c>
       <c r="N37" t="n">
-        <v>940.3835686454992</v>
+        <v>940.3835686454991</v>
       </c>
       <c r="O37" t="n">
         <v>1170.458570641955</v>
@@ -7119,28 +7119,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R37" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S37" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T37" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U37" t="n">
-        <v>795.1463039382379</v>
+        <v>1350.166138641084</v>
       </c>
       <c r="V37" t="n">
-        <v>534.4109994966605</v>
+        <v>1089.430834199507</v>
       </c>
       <c r="W37" t="n">
-        <v>534.4109994966605</v>
+        <v>1089.430834199507</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8961884683906</v>
+        <v>1089.430834199507</v>
       </c>
       <c r="Y37" t="n">
-        <v>380.8961884683906</v>
+        <v>1089.430834199507</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>727.8473311974855</v>
+        <v>699.2019977045966</v>
       </c>
       <c r="C38" t="n">
-        <v>727.8473311974855</v>
+        <v>349.1407572286994</v>
       </c>
       <c r="D38" t="n">
-        <v>727.8473311974855</v>
+        <v>349.1407572286994</v>
       </c>
       <c r="E38" t="n">
-        <v>377.7860907215883</v>
+        <v>349.1407572286994</v>
       </c>
       <c r="F38" t="n">
-        <v>377.7860907215883</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="G38" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="H38" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="I38" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="J38" t="n">
-        <v>58.27700866085739</v>
+        <v>158.90858217916</v>
       </c>
       <c r="K38" t="n">
-        <v>145.2918203700023</v>
+        <v>245.9233938883049</v>
       </c>
       <c r="L38" t="n">
-        <v>488.3868421604291</v>
+        <v>383.8556436990579</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5944646974991</v>
+        <v>563.0632662361279</v>
       </c>
       <c r="N38" t="n">
-        <v>1010.689486487926</v>
+        <v>748.9193747694505</v>
       </c>
       <c r="O38" t="n">
-        <v>1175.353239753635</v>
+        <v>913.5831280351598</v>
       </c>
       <c r="P38" t="n">
-        <v>1287.857880337444</v>
+        <v>1026.087768618969</v>
       </c>
       <c r="Q38" t="n">
         <v>1344.683104696192</v>
@@ -7204,22 +7204,22 @@
         <v>1386.242512284553</v>
       </c>
       <c r="T38" t="n">
-        <v>1171.154881110437</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U38" t="n">
-        <v>916.4389806228523</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V38" t="n">
-        <v>916.4389806228523</v>
+        <v>1049.263238180494</v>
       </c>
       <c r="W38" t="n">
-        <v>727.8473311974855</v>
+        <v>1049.263238180494</v>
       </c>
       <c r="X38" t="n">
-        <v>727.8473311974855</v>
+        <v>1049.263238180494</v>
       </c>
       <c r="Y38" t="n">
-        <v>727.8473311974855</v>
+        <v>1049.263238180494</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>694.240453090886</v>
+        <v>234.9225032369362</v>
       </c>
       <c r="C39" t="n">
-        <v>694.240453090886</v>
+        <v>234.9225032369362</v>
       </c>
       <c r="D39" t="n">
-        <v>555.4018160810981</v>
+        <v>162.4186482958167</v>
       </c>
       <c r="E39" t="n">
-        <v>408.3738061379694</v>
+        <v>162.4186482958167</v>
       </c>
       <c r="F39" t="n">
-        <v>273.6800080878437</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="G39" t="n">
-        <v>146.0847099162547</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="H39" t="n">
-        <v>57.09119621246282</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="I39" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="J39" t="n">
-        <v>192.9111683250751</v>
+        <v>30.6320058419689</v>
       </c>
       <c r="K39" t="n">
-        <v>536.0061901155019</v>
+        <v>99.10159288993961</v>
       </c>
       <c r="L39" t="n">
-        <v>665.7090642619182</v>
+        <v>442.1966146803663</v>
       </c>
       <c r="M39" t="n">
-        <v>832.7936560914056</v>
+        <v>609.2812065098537</v>
       </c>
       <c r="N39" t="n">
-        <v>1016.007503884945</v>
+        <v>952.3762283002804</v>
       </c>
       <c r="O39" t="n">
         <v>1252.746733226337</v>
@@ -7280,25 +7280,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S39" t="n">
-        <v>1274.576844774234</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="T39" t="n">
-        <v>1274.576844774234</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="U39" t="n">
-        <v>1274.576844774234</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="V39" t="n">
-        <v>1046.181222222568</v>
+        <v>1026.096129257514</v>
       </c>
       <c r="W39" t="n">
-        <v>1046.181222222568</v>
+        <v>784.7802604908237</v>
       </c>
       <c r="X39" t="n">
-        <v>1046.181222222568</v>
+        <v>586.8632723686183</v>
       </c>
       <c r="Y39" t="n">
-        <v>853.659895872147</v>
+        <v>394.3419460181971</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.72485024569106</v>
+        <v>447.3554851428354</v>
       </c>
       <c r="C40" t="n">
-        <v>27.72485024569106</v>
+        <v>447.3554851428354</v>
       </c>
       <c r="D40" t="n">
-        <v>27.72485024569106</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="E40" t="n">
-        <v>27.72485024569106</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="F40" t="n">
-        <v>27.72485024569106</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="G40" t="n">
-        <v>27.72485024569106</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="H40" t="n">
-        <v>27.72485024569106</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I40" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569105</v>
       </c>
       <c r="J40" t="n">
-        <v>34.69382298257744</v>
+        <v>34.69382298257747</v>
       </c>
       <c r="K40" t="n">
         <v>176.4786849811306</v>
@@ -7341,16 +7341,16 @@
         <v>415.5197821238346</v>
       </c>
       <c r="M40" t="n">
-        <v>679.4725500793053</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N40" t="n">
-        <v>940.3835686454992</v>
+        <v>940.3835686454993</v>
       </c>
       <c r="O40" t="n">
         <v>1170.458570641955</v>
       </c>
       <c r="P40" t="n">
-        <v>1346.043305565242</v>
+        <v>1346.043305565243</v>
       </c>
       <c r="Q40" t="n">
         <v>1386.242512284553</v>
@@ -7359,25 +7359,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S40" t="n">
-        <v>1386.242512284553</v>
+        <v>1189.089326709041</v>
       </c>
       <c r="T40" t="n">
-        <v>1157.122813768868</v>
+        <v>959.9696281933559</v>
       </c>
       <c r="U40" t="n">
-        <v>1157.122813768868</v>
+        <v>959.9696281933559</v>
       </c>
       <c r="V40" t="n">
-        <v>896.3875093272907</v>
+        <v>699.2343237517784</v>
       </c>
       <c r="W40" t="n">
-        <v>610.2311078446899</v>
+        <v>699.2343237517784</v>
       </c>
       <c r="X40" t="n">
-        <v>433.3153777377938</v>
+        <v>630.9108538272152</v>
       </c>
       <c r="Y40" t="n">
-        <v>211.2802189300709</v>
+        <v>630.9108538272152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.7860907215883</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="C41" t="n">
-        <v>377.7860907215883</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="D41" t="n">
-        <v>377.7860907215883</v>
+        <v>686.1200313327583</v>
       </c>
       <c r="E41" t="n">
         <v>377.7860907215883</v>
       </c>
       <c r="F41" t="n">
-        <v>27.72485024569106</v>
+        <v>377.7860907215883</v>
       </c>
       <c r="G41" t="n">
         <v>27.72485024569106</v>
@@ -7411,25 +7411,25 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J41" t="n">
-        <v>58.27700866085739</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K41" t="n">
-        <v>145.2918203700023</v>
+        <v>560.7321944559628</v>
       </c>
       <c r="L41" t="n">
-        <v>425.4150512874188</v>
+        <v>698.6644442667158</v>
       </c>
       <c r="M41" t="n">
-        <v>604.6226738244889</v>
+        <v>877.8720668037859</v>
       </c>
       <c r="N41" t="n">
-        <v>790.4787823578115</v>
+        <v>1063.728175337108</v>
       </c>
       <c r="O41" t="n">
-        <v>955.1425356235208</v>
+        <v>1228.391928602818</v>
       </c>
       <c r="P41" t="n">
-        <v>1067.64717620733</v>
+        <v>1340.896569186627</v>
       </c>
       <c r="Q41" t="n">
         <v>1386.242512284553</v>
@@ -7453,10 +7453,10 @@
         <v>1036.181271808656</v>
       </c>
       <c r="X41" t="n">
-        <v>686.1200313327583</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="Y41" t="n">
-        <v>686.1200313327583</v>
+        <v>1036.181271808656</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>475.295169957653</v>
+        <v>461.5156923551822</v>
       </c>
       <c r="C42" t="n">
-        <v>313.5914971986077</v>
+        <v>299.8120195961369</v>
       </c>
       <c r="D42" t="n">
-        <v>174.7528601888198</v>
+        <v>160.973382586349</v>
       </c>
       <c r="E42" t="n">
-        <v>27.72485024569106</v>
+        <v>160.973382586349</v>
       </c>
       <c r="F42" t="n">
-        <v>27.72485024569106</v>
+        <v>155.3201484172801</v>
       </c>
       <c r="G42" t="n">
         <v>27.72485024569106</v>
@@ -7490,28 +7490,28 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J42" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K42" t="n">
-        <v>99.10159288993961</v>
+        <v>261.3807553730458</v>
       </c>
       <c r="L42" t="n">
-        <v>442.1966146803665</v>
+        <v>391.0836295194621</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4378636423716</v>
+        <v>558.1682213489495</v>
       </c>
       <c r="N42" t="n">
-        <v>909.6517114359104</v>
+        <v>901.2632431393763</v>
       </c>
       <c r="O42" t="n">
-        <v>1252.746733226337</v>
+        <v>1050.814536540997</v>
       </c>
       <c r="P42" t="n">
-        <v>1357.0667145334</v>
+        <v>1346.703483422432</v>
       </c>
       <c r="Q42" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R42" t="n">
         <v>1386.242512284553</v>
@@ -7526,16 +7526,16 @@
         <v>851.9540068278088</v>
       </c>
       <c r="V42" t="n">
-        <v>634.714612738914</v>
+        <v>851.9540068278088</v>
       </c>
       <c r="W42" t="n">
-        <v>634.714612738914</v>
+        <v>851.9540068278088</v>
       </c>
       <c r="X42" t="n">
-        <v>634.714612738914</v>
+        <v>654.0370187056034</v>
       </c>
       <c r="Y42" t="n">
-        <v>634.714612738914</v>
+        <v>461.5156923551822</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.3476680200671</v>
+        <v>767.8058504225061</v>
       </c>
       <c r="C43" t="n">
-        <v>483.7316984817473</v>
+        <v>767.8058504225061</v>
       </c>
       <c r="D43" t="n">
-        <v>330.6598053095101</v>
+        <v>614.7339572502688</v>
       </c>
       <c r="E43" t="n">
-        <v>178.6507910708289</v>
+        <v>614.7339572502688</v>
       </c>
       <c r="F43" t="n">
-        <v>178.6507910708289</v>
+        <v>462.2533022760459</v>
       </c>
       <c r="G43" t="n">
-        <v>178.6507910708289</v>
+        <v>294.2835919705981</v>
       </c>
       <c r="H43" t="n">
-        <v>27.72485024569106</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I43" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J43" t="n">
-        <v>34.69382298257747</v>
+        <v>34.69382298257744</v>
       </c>
       <c r="K43" t="n">
         <v>176.4786849811306</v>
@@ -7578,10 +7578,10 @@
         <v>415.5197821238346</v>
       </c>
       <c r="M43" t="n">
-        <v>679.4725500793052</v>
+        <v>679.4725500793053</v>
       </c>
       <c r="N43" t="n">
-        <v>940.3835686454991</v>
+        <v>940.3835686454992</v>
       </c>
       <c r="O43" t="n">
         <v>1170.458570641955</v>
@@ -7599,22 +7599,22 @@
         <v>1189.089326709041</v>
       </c>
       <c r="T43" t="n">
-        <v>1189.089326709041</v>
+        <v>989.841009230229</v>
       </c>
       <c r="U43" t="n">
-        <v>1189.089326709041</v>
+        <v>989.841009230229</v>
       </c>
       <c r="V43" t="n">
-        <v>928.3540222674633</v>
+        <v>989.841009230229</v>
       </c>
       <c r="W43" t="n">
-        <v>928.3540222674633</v>
+        <v>989.841009230229</v>
       </c>
       <c r="X43" t="n">
-        <v>836.9030367044469</v>
+        <v>989.841009230229</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.9030367044469</v>
+        <v>767.8058504225061</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>727.8473311974844</v>
+        <v>1077.908571673383</v>
       </c>
       <c r="C44" t="n">
-        <v>727.8473311974844</v>
+        <v>1077.908571673383</v>
       </c>
       <c r="D44" t="n">
-        <v>727.8473311974844</v>
+        <v>727.8473311974855</v>
       </c>
       <c r="E44" t="n">
-        <v>727.8473311974844</v>
+        <v>377.7860907215883</v>
       </c>
       <c r="F44" t="n">
-        <v>377.7860907215878</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="G44" t="n">
-        <v>27.72485024569102</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="H44" t="n">
-        <v>27.72485024569102</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I44" t="n">
-        <v>27.72485024569102</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="J44" t="n">
-        <v>253.7267066337384</v>
+        <v>58.27700866085739</v>
       </c>
       <c r="K44" t="n">
-        <v>340.7415183428833</v>
+        <v>145.2918203700023</v>
       </c>
       <c r="L44" t="n">
-        <v>478.6737681536363</v>
+        <v>283.2240701807552</v>
       </c>
       <c r="M44" t="n">
-        <v>657.8813906907063</v>
+        <v>462.4316927178253</v>
       </c>
       <c r="N44" t="n">
-        <v>843.737499224029</v>
+        <v>648.2878012511479</v>
       </c>
       <c r="O44" t="n">
-        <v>1186.832521014455</v>
+        <v>955.1425356235208</v>
       </c>
       <c r="P44" t="n">
-        <v>1299.337161598264</v>
+        <v>1067.64717620733</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.68310469619</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="R44" t="n">
-        <v>1386.242512284551</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S44" t="n">
-        <v>1386.242512284551</v>
+        <v>1332.624472160967</v>
       </c>
       <c r="T44" t="n">
-        <v>1386.242512284551</v>
+        <v>1332.624472160967</v>
       </c>
       <c r="U44" t="n">
-        <v>1386.242512284551</v>
+        <v>1077.908571673383</v>
       </c>
       <c r="V44" t="n">
-        <v>1386.242512284551</v>
+        <v>1077.908571673383</v>
       </c>
       <c r="W44" t="n">
-        <v>1036.181271808654</v>
+        <v>1077.908571673383</v>
       </c>
       <c r="X44" t="n">
-        <v>1036.181271808654</v>
+        <v>1077.908571673383</v>
       </c>
       <c r="Y44" t="n">
-        <v>1036.181271808654</v>
+        <v>1077.908571673383</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.7391428733715</v>
+        <v>210.2244406881788</v>
       </c>
       <c r="C45" t="n">
-        <v>526.0354701143262</v>
+        <v>48.52076792913351</v>
       </c>
       <c r="D45" t="n">
-        <v>526.0354701143262</v>
+        <v>48.52076792913351</v>
       </c>
       <c r="E45" t="n">
-        <v>379.0074601711975</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="F45" t="n">
-        <v>244.3136621210719</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="G45" t="n">
-        <v>116.7183639494829</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="H45" t="n">
-        <v>27.72485024569102</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I45" t="n">
-        <v>27.72485024569102</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="J45" t="n">
-        <v>137.4254318635175</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K45" t="n">
-        <v>205.8950189114883</v>
+        <v>536.0061901155019</v>
       </c>
       <c r="L45" t="n">
-        <v>548.9900407019146</v>
+        <v>665.7090642619182</v>
       </c>
       <c r="M45" t="n">
-        <v>716.074632531402</v>
+        <v>832.7936560914056</v>
       </c>
       <c r="N45" t="n">
-        <v>899.2884803249409</v>
+        <v>1016.007503884945</v>
       </c>
       <c r="O45" t="n">
-        <v>1242.383502115367</v>
+        <v>1242.383502115369</v>
       </c>
       <c r="P45" t="n">
-        <v>1346.70348342243</v>
+        <v>1346.703483422432</v>
       </c>
       <c r="Q45" t="n">
-        <v>1375.879281173583</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R45" t="n">
-        <v>1386.242512284551</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S45" t="n">
-        <v>1254.491751809178</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="T45" t="n">
-        <v>1108.656091775459</v>
+        <v>1070.374246479161</v>
       </c>
       <c r="U45" t="n">
-        <v>1108.656091775459</v>
+        <v>1070.374246479161</v>
       </c>
       <c r="V45" t="n">
-        <v>880.2604692237927</v>
+        <v>841.9786239274954</v>
       </c>
       <c r="W45" t="n">
-        <v>880.2604692237927</v>
+        <v>600.6627551608054</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2604692237927</v>
+        <v>402.7457670386</v>
       </c>
       <c r="Y45" t="n">
-        <v>687.7391428733715</v>
+        <v>210.2244406881788</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>294.2835919705981</v>
+        <v>766.7429714889499</v>
       </c>
       <c r="C46" t="n">
-        <v>294.2835919705981</v>
+        <v>766.7429714889499</v>
       </c>
       <c r="D46" t="n">
-        <v>294.2835919705981</v>
+        <v>766.7429714889499</v>
       </c>
       <c r="E46" t="n">
-        <v>294.2835919705981</v>
+        <v>614.7339572502688</v>
       </c>
       <c r="F46" t="n">
-        <v>294.2835919705981</v>
+        <v>462.2533022760459</v>
       </c>
       <c r="G46" t="n">
         <v>294.2835919705981</v>
       </c>
       <c r="H46" t="n">
-        <v>143.3576511454602</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I46" t="n">
-        <v>27.72485024569102</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="J46" t="n">
-        <v>34.69382298257743</v>
+        <v>34.69382298257747</v>
       </c>
       <c r="K46" t="n">
-        <v>176.4786849811287</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L46" t="n">
-        <v>415.5197821238326</v>
+        <v>415.5197821238346</v>
       </c>
       <c r="M46" t="n">
-        <v>679.4725500793033</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N46" t="n">
-        <v>940.3835686454972</v>
+        <v>940.3835686454993</v>
       </c>
       <c r="O46" t="n">
-        <v>1170.458570641953</v>
+        <v>1170.458570641955</v>
       </c>
       <c r="P46" t="n">
-        <v>1346.043305565241</v>
+        <v>1346.043305565242</v>
       </c>
       <c r="Q46" t="n">
-        <v>1386.242512284551</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="R46" t="n">
-        <v>1279.437908752283</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S46" t="n">
-        <v>1082.284723176771</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T46" t="n">
-        <v>1073.409779755334</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U46" t="n">
-        <v>786.2713605167996</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V46" t="n">
-        <v>525.5360560752223</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="W46" t="n">
-        <v>525.5360560752223</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="X46" t="n">
-        <v>294.2835919705981</v>
+        <v>1154.990048179928</v>
       </c>
       <c r="Y46" t="n">
-        <v>294.2835919705981</v>
+        <v>932.9548893722055</v>
       </c>
     </row>
   </sheetData>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>258.6668788699817</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.8111417772742</v>
+        <v>160.9698626309885</v>
       </c>
       <c r="R11" t="n">
         <v>43.45214625067439</v>
@@ -8768,7 +8768,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.631103287842564</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>124.281141615014</v>
       </c>
       <c r="P12" t="n">
         <v>241.1869095791557</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.17817075471706</v>
+        <v>48.71026054161794</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>211.2171120040207</v>
       </c>
       <c r="M13" t="n">
-        <v>232.0625591822789</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N13" t="n">
         <v>223.3630318978003</v>
@@ -8865,7 +8865,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P13" t="n">
-        <v>175.5085323082534</v>
+        <v>175.508532308253</v>
       </c>
       <c r="Q13" t="n">
         <v>84.9458458910769</v>
@@ -8932,25 +8932,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>207.2351232117917</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>158.827185108186</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>27.88997941640275</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>232.9195769763816</v>
+        <v>170.4224187049759</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>43.45214625067439</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>40.73829919725875</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>277.3994290327839</v>
       </c>
       <c r="L15" t="n">
-        <v>215.547623882839</v>
+        <v>215.5476238828389</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.97143400797935</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>197.4239373463459</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>157.8319421930716</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>180.2336045704217</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>72.65186367470665</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>215.547623882839</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>161.4961353503918</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>126.7033522071538</v>
       </c>
       <c r="P18" t="n">
         <v>241.1869095791558</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>101.6480540588917</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>207.2351232117917</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>165.5428275286432</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>46.85879076053533</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
-        <v>43.45214625067439</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>92.3675771375662</v>
       </c>
       <c r="M21" t="n">
-        <v>124.281141615014</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>241.1869095791558</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>48.71026054161794</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>56.03679667727513</v>
       </c>
       <c r="M23" t="n">
-        <v>426.6549110986346</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>441.3456881404131</v>
       </c>
       <c r="P23" t="n">
-        <v>267.5458059252641</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9716,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>357.9916106816169</v>
       </c>
       <c r="M24" t="n">
-        <v>259.5962207624812</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>422.6082189203833</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>456.6107991142401</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9880,7 +9880,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
-        <v>468.3472067817831</v>
+        <v>314.7908802655875</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>287.7893616242176</v>
+        <v>441.3456881404131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>357.9916106816169</v>
       </c>
       <c r="M27" t="n">
-        <v>270.0641309755803</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>422.6082189203833</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>456.6107991142401</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425141</v>
+        <v>56.03679667727513</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>426.6549110986346</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>441.3456881404131</v>
       </c>
       <c r="P29" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>187.1528245423149</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>43.45214625067439</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>259.5962207624812</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>476.6597074528303</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>438.9003966618493</v>
       </c>
       <c r="N30" t="n">
-        <v>422.6082189203833</v>
+        <v>27.19549907067011</v>
       </c>
       <c r="O30" t="n">
         <v>456.6107991142401</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.17817075471706</v>
+        <v>48.71026054161794</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>70.72757371905362</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>297.2688158632067</v>
+        <v>426.6549110986346</v>
       </c>
       <c r="N32" t="n">
-        <v>419.9392686781775</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>270.06413097558</v>
       </c>
       <c r="M33" t="n">
-        <v>245.1856196837286</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>422.6082189203833</v>
       </c>
       <c r="O33" t="n">
         <v>456.6107991142401</v>
@@ -10448,10 +10448,10 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.17817075471706</v>
+        <v>48.71026054161794</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>143.6272536430945</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>143.6272536430945</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>277.3994290327839</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>241.1869095791558</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.8132314019148</v>
+        <v>0.3321483116623156</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>101.6480540588915</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>207.2351232117917</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>158.827185108186</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>11.59523359678977</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10901,22 +10901,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>277.3994290327839</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>215.5476238828389</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>161.4961353503917</v>
       </c>
       <c r="O39" t="n">
-        <v>88.06862216138595</v>
+        <v>152.3426379034707</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>199.8111417772743</v>
       </c>
       <c r="L41" t="n">
-        <v>143.6272536430945</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>43.45214625067439</v>
@@ -11138,31 +11138,31 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>215.5476238828389</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>118.3400577096138</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>161.4961353503918</v>
       </c>
       <c r="O42" t="n">
-        <v>195.4987155442486</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>193.504005630679</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>211.2171120040207</v>
       </c>
       <c r="M43" t="n">
-        <v>232.0625591822792</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N43" t="n">
         <v>223.3630318978003</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>197.4239373463445</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>180.2336045704213</v>
+        <v>143.6272536430945</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
-        <v>85.43134583487716</v>
+        <v>43.45214625067439</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>107.8721474965138</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>277.3994290327839</v>
       </c>
       <c r="L45" t="n">
-        <v>215.5476238828385</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>195.4987155442482</v>
+        <v>77.6007119482868</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>138.7668962480463</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
         <v>211.2171120040207</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.54247605170082</v>
+        <v>209.4779409010702</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>22.53509705391053</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>44.27723462381607</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>194.8489557424224</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H11" t="n">
         <v>308.0195363226926</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>90.253378272592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.9367548623747</v>
@@ -23317,7 +23317,7 @@
         <v>252.1687414827087</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>12.34895276983684</v>
@@ -23339,25 +23339,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>31.6137473161527</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U12" t="n">
         <v>216.236037254839</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>64.35155856047351</v>
       </c>
     </row>
     <row r="13">
@@ -23424,16 +23424,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9096178189131</v>
+        <v>147.4197128129752</v>
       </c>
       <c r="H13" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T13" t="n">
         <v>226.8285015305278</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>31.5537930093825</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>22.53509705391048</v>
+        <v>29.25674365419093</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>63.44905071179318</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8461786748886</v>
+        <v>63.28555060375044</v>
       </c>
       <c r="H14" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>90.253378272592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>174.7481032416521</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23576,19 +23576,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.3193451898731</v>
+        <v>16.02516275827146</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>145.9484678152405</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -23655,7 +23655,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T16" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>230.0583029625446</v>
       </c>
       <c r="V16" t="n">
-        <v>143.2418971166647</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>43.54247605170076</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
@@ -23743,10 +23743,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>91.80793086975291</v>
       </c>
       <c r="G17" t="n">
-        <v>63.28555060375044</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H17" t="n">
         <v>308.0195363226926</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T17" t="n">
         <v>212.9367548623747</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>12.34895276983679</v>
       </c>
       <c r="X17" t="n">
-        <v>197.5846758519529</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.04580879878216</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>152.9610914813653</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>35.78483040750727</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -23828,10 +23828,10 @@
         <v>126.3193451898731</v>
       </c>
       <c r="H18" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>35.56349685665035</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>284.2670350461492</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>222.9579146471934</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>409.8461786748886</v>
       </c>
       <c r="H20" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.12423003288855</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>148.5559642630433</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.04580879878216</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>130.433252870619</v>
+        <v>91.08607468966818</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U21" t="n">
-        <v>158.7633063340163</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>135.868968233182</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>261.3140988718959</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8461786748886</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>218.0011422812953</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>90.253378272592</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U23" t="n">
         <v>252.1687414827087</v>
@@ -24268,13 +24268,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>17.79189278269001</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -24378,7 +24378,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>30.23102488381414</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>149.4166814168865</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>220.0833798601442</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>101.6454171030283</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I26" t="n">
         <v>90.253378272592</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>220.205806483104</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>13.97625577283705</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2670350461492</v>
+        <v>159.7390764016569</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8461786748886</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>297.2735802140609</v>
       </c>
       <c r="I29" t="n">
         <v>90.253378272592</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T29" t="n">
         <v>212.9367548623747</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V29" t="n">
-        <v>191.1784712554229</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,7 +24846,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.82087236345617</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>114.767170040861</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>340.3594686912718</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>90.253378272592</v>
+        <v>18.43123336160437</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U32" t="n">
         <v>252.1687414827087</v>
@@ -24982,10 +24982,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>130.972518245161</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T34" t="n">
-        <v>151.910722059863</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.54247605170076</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>22.53509705391048</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>44.27723462381601</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>104.759077577873</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8461786748886</v>
+        <v>63.28555060375044</v>
       </c>
       <c r="H35" t="n">
         <v>308.0195363226926</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U35" t="n">
         <v>252.1687414827087</v>
@@ -25219,10 +25219,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>76.91194935130943</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>43.04580879878216</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>93.15554422806804</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>119.9668390571654</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T37" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>248.5514251391156</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>76.96027654559086</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>43.54247605170082</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>31.55379300938256</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>44.27723462381601</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>91.80793086975308</v>
       </c>
       <c r="G38" t="n">
-        <v>63.28555060375044</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H38" t="n">
         <v>308.0195363226926</v>
@@ -25444,16 +25444,16 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>172.2038479098618</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
@@ -25475,22 +25475,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>65.67143424798176</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>19.88424203540355</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>182.2763302767183</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -25566,10 +25566,10 @@
         <v>166.2900132023933</v>
       </c>
       <c r="H40" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>53.79336665775091</v>
+        <v>161.2997042382603</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.85250291778061</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>22.53509705391048</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>85.58726148989587</v>
       </c>
       <c r="F41" t="n">
-        <v>63.44905071179318</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8461786748886</v>
+        <v>63.28555060375044</v>
       </c>
       <c r="H41" t="n">
         <v>308.0195363226926</v>
@@ -25693,7 +25693,7 @@
         <v>12.34895276983679</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6492110025834</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,13 +25715,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>127.7501582422462</v>
       </c>
       <c r="G42" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>88.10357856675394</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>11.04466617814344</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8285015305278</v>
+        <v>29.57266722650422</v>
       </c>
       <c r="U43" t="n">
         <v>284.2670350461492</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>138.4034637561918</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>84.8525029177809</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>22.53509705391048</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>44.27723462381601</v>
       </c>
       <c r="F44" t="n">
-        <v>63.44905071179363</v>
+        <v>63.44905071179318</v>
       </c>
       <c r="G44" t="n">
-        <v>63.28555060375089</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H44" t="n">
         <v>308.0195363226926</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>137.5765846914097</v>
+        <v>84.49472496905992</v>
       </c>
       <c r="T44" t="n">
         <v>212.9367548623747</v>
       </c>
       <c r="U44" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>12.34895276983724</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -25952,16 +25952,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>124.9697713370894</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I45" t="n">
         <v>29.07268250710404</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>37.89902684333606</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>216.236037254839</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>17.17001629311306</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26031,13 +26031,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T46" t="n">
-        <v>218.0423075433057</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>443452.2186791438</v>
+        <v>443452.2186791439</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>614378.5686602644</v>
+        <v>614378.5686602641</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>614378.5686602647</v>
+        <v>614378.5686602646</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>614378.5686602644</v>
+        <v>614378.5686602646</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>443452.2186791438</v>
+        <v>443452.2186791439</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>443452.2186791438</v>
+        <v>443452.2186791437</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443452.2186791434</v>
+        <v>443452.2186791438</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574407.4736304783</v>
+      </c>
+      <c r="C2" t="n">
         <v>574407.4736304781</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574407.473630478</v>
       </c>
       <c r="D2" t="n">
         <v>574407.4736304781</v>
@@ -26328,16 +26328,16 @@
         <v>306250.554008528</v>
       </c>
       <c r="G2" t="n">
-        <v>306250.554008528</v>
+        <v>306250.5540085279</v>
       </c>
       <c r="H2" t="n">
-        <v>306250.554008528</v>
+        <v>306250.5540085279</v>
       </c>
       <c r="I2" t="n">
+        <v>398969.6793220636</v>
+      </c>
+      <c r="J2" t="n">
         <v>398969.6793220637</v>
-      </c>
-      <c r="J2" t="n">
-        <v>398969.6793220636</v>
       </c>
       <c r="K2" t="n">
         <v>398969.6793220637</v>
@@ -26346,16 +26346,16 @@
         <v>398969.6793220637</v>
       </c>
       <c r="M2" t="n">
+        <v>306250.5540085279</v>
+      </c>
+      <c r="N2" t="n">
+        <v>306250.5540085281</v>
+      </c>
+      <c r="O2" t="n">
+        <v>306250.5540085279</v>
+      </c>
+      <c r="P2" t="n">
         <v>306250.554008528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>306250.5540085279</v>
-      </c>
-      <c r="O2" t="n">
-        <v>306250.554008528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>306250.5540085279</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69435.18637501568</v>
+        <v>69435.18637501572</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21294.11908386378</v>
+        <v>21294.11908386404</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>401607.4064143078</v>
       </c>
       <c r="C4" t="n">
-        <v>401607.4064143078</v>
+        <v>401607.4064143077</v>
       </c>
       <c r="D4" t="n">
         <v>401607.4064143078</v>
@@ -26429,22 +26429,22 @@
         <v>35418.66724149686</v>
       </c>
       <c r="F4" t="n">
-        <v>35418.66724149687</v>
+        <v>35418.66724149688</v>
       </c>
       <c r="G4" t="n">
-        <v>35418.66724149687</v>
+        <v>35418.66724149686</v>
       </c>
       <c r="H4" t="n">
-        <v>35418.66724149686</v>
+        <v>35418.66724149688</v>
       </c>
       <c r="I4" t="n">
-        <v>82908.72020282215</v>
+        <v>82908.72020282214</v>
       </c>
       <c r="J4" t="n">
         <v>82908.72020282215</v>
       </c>
       <c r="K4" t="n">
-        <v>82908.72020282217</v>
+        <v>82908.72020282212</v>
       </c>
       <c r="L4" t="n">
         <v>82908.72020282212</v>
@@ -26453,13 +26453,13 @@
         <v>35418.66724149687</v>
       </c>
       <c r="N4" t="n">
-        <v>35418.66724149686</v>
+        <v>35418.66724149687</v>
       </c>
       <c r="O4" t="n">
+        <v>35418.66724149687</v>
+      </c>
+      <c r="P4" t="n">
         <v>35418.66724149688</v>
-      </c>
-      <c r="P4" t="n">
-        <v>35418.66724149676</v>
       </c>
     </row>
     <row r="5">
@@ -26505,13 +26505,13 @@
         <v>32441.13488836201</v>
       </c>
       <c r="N5" t="n">
-        <v>32441.13488836201</v>
+        <v>32441.134888362</v>
       </c>
       <c r="O5" t="n">
         <v>32441.13488836201</v>
       </c>
       <c r="P5" t="n">
-        <v>32441.13488836198</v>
+        <v>32441.13488836201</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139172.4672161704</v>
+        <v>139128.7814914986</v>
       </c>
       <c r="C6" t="n">
-        <v>139172.4672161703</v>
+        <v>139128.7814914985</v>
       </c>
       <c r="D6" t="n">
-        <v>139172.4672161704</v>
+        <v>139128.7814914984</v>
       </c>
       <c r="E6" t="n">
-        <v>-284116.3666708908</v>
+        <v>-293098.6163829611</v>
       </c>
       <c r="F6" t="n">
-        <v>238390.7518786691</v>
+        <v>229408.5021665989</v>
       </c>
       <c r="G6" t="n">
-        <v>238390.7518786691</v>
+        <v>229408.5021665987</v>
       </c>
       <c r="H6" t="n">
-        <v>238390.7518786691</v>
+        <v>229408.5021665987</v>
       </c>
       <c r="I6" t="n">
-        <v>198309.0231748084</v>
+        <v>192417.4109731892</v>
       </c>
       <c r="J6" t="n">
-        <v>267744.209549824</v>
+        <v>261852.597348205</v>
       </c>
       <c r="K6" t="n">
-        <v>267744.2095498241</v>
+        <v>261852.597348205</v>
       </c>
       <c r="L6" t="n">
-        <v>267744.2095498241</v>
+        <v>261852.597348205</v>
       </c>
       <c r="M6" t="n">
-        <v>217096.6327948053</v>
+        <v>208114.3830827348</v>
       </c>
       <c r="N6" t="n">
-        <v>238390.7518786691</v>
+        <v>229408.5021665989</v>
       </c>
       <c r="O6" t="n">
-        <v>238390.7518786691</v>
+        <v>229408.5021665988</v>
       </c>
       <c r="P6" t="n">
-        <v>238390.7518786692</v>
+        <v>229408.5021665989</v>
       </c>
     </row>
   </sheetData>
@@ -26825,13 +26825,13 @@
         <v>346.5606280711382</v>
       </c>
       <c r="N4" t="n">
-        <v>346.5606280711382</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="O4" t="n">
         <v>346.5606280711382</v>
       </c>
       <c r="P4" t="n">
-        <v>346.5606280711377</v>
+        <v>346.5606280711382</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>261.1120835699914</v>
+        <v>261.1120835699916</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>85.44854450114678</v>
+        <v>85.44854450114781</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>250.6863657996215</v>
+        <v>30.8607660759256</v>
       </c>
       <c r="K11" t="n">
-        <v>87.89374920115645</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="L11" t="n">
         <v>139.3255048593464</v>
@@ -35430,7 +35430,7 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q11" t="n">
-        <v>245.615124704472</v>
+        <v>206.7738455581863</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K12" t="n">
         <v>69.16119903835425</v>
@@ -35500,19 +35500,19 @@
         <v>168.7723149792803</v>
       </c>
       <c r="N12" t="n">
-        <v>189.695596008589</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O12" t="n">
-        <v>151.0619125268895</v>
+        <v>275.3430541419036</v>
       </c>
       <c r="P12" t="n">
         <v>346.5606280711381</v>
       </c>
       <c r="Q12" t="n">
-        <v>302.5709768355462</v>
+        <v>29.47050277894239</v>
       </c>
       <c r="R12" t="n">
-        <v>10.46791021309912</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>241.455653679499</v>
       </c>
       <c r="M13" t="n">
-        <v>266.6189575307781</v>
+        <v>266.6189575307785</v>
       </c>
       <c r="N13" t="n">
         <v>263.5464834001958</v>
@@ -35585,7 +35585,7 @@
         <v>232.3989919156118</v>
       </c>
       <c r="P13" t="n">
-        <v>177.3583181043309</v>
+        <v>177.3583181043305</v>
       </c>
       <c r="Q13" t="n">
         <v>40.60525931243461</v>
@@ -35652,25 +35652,25 @@
         <v>87.89374920115645</v>
       </c>
       <c r="L14" t="n">
-        <v>139.3255048593464</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="M14" t="n">
         <v>181.017800542495</v>
       </c>
       <c r="N14" t="n">
-        <v>346.5606280711382</v>
+        <v>187.7334429629522</v>
       </c>
       <c r="O14" t="n">
-        <v>194.2170029171192</v>
+        <v>166.3270235007165</v>
       </c>
       <c r="P14" t="n">
-        <v>346.5606280711382</v>
+        <v>284.0634697997325</v>
       </c>
       <c r="Q14" t="n">
         <v>45.80398292719772</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>41.97919958420277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>43.67482000157982</v>
+        <v>2.936520804321063</v>
       </c>
       <c r="K15" t="n">
-        <v>69.16119903835425</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="L15" t="n">
         <v>346.5606280711382</v>
@@ -35740,16 +35740,16 @@
         <v>185.0644927207464</v>
       </c>
       <c r="O15" t="n">
-        <v>151.0619125268895</v>
+        <v>177.0333465348689</v>
       </c>
       <c r="P15" t="n">
         <v>105.3737184919824</v>
       </c>
       <c r="Q15" t="n">
-        <v>302.5709768355462</v>
+        <v>29.47050277894239</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K17" t="n">
         <v>87.89374920115645</v>
       </c>
       <c r="L17" t="n">
-        <v>336.7494422056923</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M17" t="n">
-        <v>181.017800542495</v>
+        <v>338.8497427355666</v>
       </c>
       <c r="N17" t="n">
         <v>187.7334429629522</v>
       </c>
       <c r="O17" t="n">
-        <v>346.5606280711382</v>
+        <v>166.3270235007165</v>
       </c>
       <c r="P17" t="n">
         <v>113.6410510947566</v>
@@ -35965,19 +35965,19 @@
         <v>2.936520804321063</v>
       </c>
       <c r="K18" t="n">
-        <v>141.8130627130609</v>
+        <v>69.16119903835425</v>
       </c>
       <c r="L18" t="n">
-        <v>346.5606280711382</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M18" t="n">
         <v>168.7723149792803</v>
       </c>
       <c r="N18" t="n">
-        <v>185.0644927207464</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="O18" t="n">
-        <v>151.0619125268895</v>
+        <v>277.7652647340433</v>
       </c>
       <c r="P18" t="n">
         <v>346.5606280711382</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.8607660759256</v>
+        <v>132.5088201348173</v>
       </c>
       <c r="K20" t="n">
         <v>87.89374920115645</v>
       </c>
       <c r="L20" t="n">
-        <v>346.5606280711382</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M20" t="n">
-        <v>346.5606280711382</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N20" t="n">
-        <v>234.5922337234875</v>
+        <v>187.7334429629522</v>
       </c>
       <c r="O20" t="n">
         <v>166.3270235007165</v>
@@ -36141,10 +36141,10 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.80398292719772</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>41.97919958420277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>69.16119903835425</v>
       </c>
       <c r="L21" t="n">
-        <v>131.0130041882992</v>
+        <v>223.3805813258654</v>
       </c>
       <c r="M21" t="n">
-        <v>293.0534565942943</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N21" t="n">
         <v>185.0644927207464</v>
@@ -36217,10 +36217,10 @@
         <v>151.0619125268895</v>
       </c>
       <c r="P21" t="n">
-        <v>346.5606280711382</v>
+        <v>105.3737184919824</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K23" t="n">
         <v>87.89374920115645</v>
       </c>
       <c r="L23" t="n">
-        <v>139.3255048593464</v>
+        <v>195.3623015366216</v>
       </c>
       <c r="M23" t="n">
-        <v>607.6727116411296</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N23" t="n">
         <v>187.7334429629522</v>
@@ -36375,7 +36375,7 @@
         <v>607.6727116411296</v>
       </c>
       <c r="P23" t="n">
-        <v>381.1868570200206</v>
+        <v>531.979371717684</v>
       </c>
       <c r="Q23" t="n">
         <v>321.8134707850738</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K24" t="n">
-        <v>69.16119903835425</v>
+        <v>412.9660071547065</v>
       </c>
       <c r="L24" t="n">
-        <v>131.0130041882992</v>
+        <v>489.0046148699162</v>
       </c>
       <c r="M24" t="n">
-        <v>428.3685357417614</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N24" t="n">
-        <v>607.6727116411296</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O24" t="n">
-        <v>607.6727116411296</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P24" t="n">
         <v>519.3753177239007</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R24" t="n">
         <v>10.46791021309912</v>
@@ -36600,7 +36600,7 @@
         <v>509.2827855436706</v>
       </c>
       <c r="L26" t="n">
-        <v>607.6727116411296</v>
+        <v>454.116385124934</v>
       </c>
       <c r="M26" t="n">
         <v>181.017800542495</v>
@@ -36609,7 +36609,7 @@
         <v>187.7334429629522</v>
       </c>
       <c r="O26" t="n">
-        <v>454.1163851249341</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="P26" t="n">
         <v>113.6410510947566</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K27" t="n">
-        <v>69.16119903835425</v>
+        <v>412.9660071547065</v>
       </c>
       <c r="L27" t="n">
-        <v>131.0130041882992</v>
+        <v>489.0046148699162</v>
       </c>
       <c r="M27" t="n">
-        <v>438.8364459548606</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N27" t="n">
-        <v>607.6727116411296</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O27" t="n">
-        <v>607.6727116411296</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P27" t="n">
         <v>519.3753177239007</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K29" t="n">
-        <v>509.2827855436706</v>
+        <v>143.9305458784316</v>
       </c>
       <c r="L29" t="n">
         <v>139.3255048593464</v>
       </c>
       <c r="M29" t="n">
-        <v>607.6727116411296</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N29" t="n">
         <v>187.7334429629522</v>
       </c>
       <c r="O29" t="n">
-        <v>166.3270235007165</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="P29" t="n">
         <v>531.979371717684</v>
       </c>
       <c r="Q29" t="n">
-        <v>232.9568074695126</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>41.97919958420277</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K30" t="n">
-        <v>328.7574198008355</v>
+        <v>69.16119903835425</v>
       </c>
       <c r="L30" t="n">
-        <v>131.0130041882992</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="M30" t="n">
-        <v>168.7723149792803</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="N30" t="n">
-        <v>607.6727116411296</v>
+        <v>212.2599917914165</v>
       </c>
       <c r="O30" t="n">
         <v>607.6727116411296</v>
       </c>
       <c r="P30" t="n">
-        <v>519.3753177239007</v>
+        <v>105.3737184919824</v>
       </c>
       <c r="Q30" t="n">
         <v>29.47050277894239</v>
       </c>
       <c r="R30" t="n">
-        <v>10.46791021309912</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K32" t="n">
-        <v>87.89374920115645</v>
+        <v>158.6213229202101</v>
       </c>
       <c r="L32" t="n">
         <v>139.3255048593464</v>
       </c>
       <c r="M32" t="n">
-        <v>478.2866164057016</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="N32" t="n">
-        <v>607.6727116411296</v>
+        <v>187.7334429629522</v>
       </c>
       <c r="O32" t="n">
         <v>166.3270235007165</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>166.8548667468526</v>
+        <v>2.936520804321063</v>
       </c>
       <c r="K33" t="n">
         <v>69.16119903835425</v>
       </c>
       <c r="L33" t="n">
-        <v>131.0130041882992</v>
+        <v>401.0771351638792</v>
       </c>
       <c r="M33" t="n">
-        <v>413.9579346630088</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N33" t="n">
-        <v>185.0644927207464</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="O33" t="n">
         <v>607.6727116411296</v>
@@ -37168,10 +37168,10 @@
         <v>519.3753177239007</v>
       </c>
       <c r="Q33" t="n">
-        <v>302.5709768355462</v>
+        <v>29.47050277894239</v>
       </c>
       <c r="R33" t="n">
-        <v>10.46791021309912</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>30.8607660759256</v>
       </c>
       <c r="K35" t="n">
-        <v>87.89374920115645</v>
+        <v>231.5210028442509</v>
       </c>
       <c r="L35" t="n">
         <v>139.3255048593464</v>
@@ -37320,7 +37320,7 @@
         <v>187.7334429629522</v>
       </c>
       <c r="O35" t="n">
-        <v>309.9542771438109</v>
+        <v>166.3270235007165</v>
       </c>
       <c r="P35" t="n">
         <v>113.6410510947566</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>166.8548667468526</v>
+        <v>2.936520804321063</v>
       </c>
       <c r="K36" t="n">
-        <v>69.16119903835425</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="L36" t="n">
         <v>131.0130041882992</v>
@@ -37405,7 +37405,7 @@
         <v>346.5606280711382</v>
       </c>
       <c r="Q36" t="n">
-        <v>143.2837341808572</v>
+        <v>29.80265109060471</v>
       </c>
       <c r="R36" t="n">
         <v>10.46791021309912</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.8607660759256</v>
+        <v>132.5088201348171</v>
       </c>
       <c r="K38" t="n">
         <v>87.89374920115645</v>
       </c>
       <c r="L38" t="n">
-        <v>346.5606280711382</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M38" t="n">
         <v>181.017800542495</v>
       </c>
       <c r="N38" t="n">
-        <v>346.5606280711382</v>
+        <v>187.7334429629522</v>
       </c>
       <c r="O38" t="n">
         <v>166.3270235007165</v>
@@ -37563,7 +37563,7 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.39921652398749</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R38" t="n">
         <v>41.97919958420277</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>166.8548667468526</v>
+        <v>2.936520804321063</v>
       </c>
       <c r="K39" t="n">
-        <v>346.5606280711382</v>
+        <v>69.16119903835425</v>
       </c>
       <c r="L39" t="n">
-        <v>131.0130041882992</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="M39" t="n">
         <v>168.7723149792803</v>
       </c>
       <c r="N39" t="n">
-        <v>185.0644927207464</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="O39" t="n">
-        <v>239.1305346882755</v>
+        <v>303.4045504303602</v>
       </c>
       <c r="P39" t="n">
         <v>105.3737184919824</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K41" t="n">
-        <v>87.89374920115645</v>
+        <v>287.7048909784308</v>
       </c>
       <c r="L41" t="n">
-        <v>282.952758502441</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M41" t="n">
         <v>181.017800542495</v>
@@ -37800,7 +37800,7 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q41" t="n">
-        <v>321.8134707850738</v>
+        <v>45.80398292719772</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K42" t="n">
         <v>69.16119903835425</v>
       </c>
       <c r="L42" t="n">
+        <v>131.0130041882992</v>
+      </c>
+      <c r="M42" t="n">
+        <v>168.7723149792803</v>
+      </c>
+      <c r="N42" t="n">
         <v>346.5606280711382</v>
       </c>
-      <c r="M42" t="n">
-        <v>287.112372688894</v>
-      </c>
-      <c r="N42" t="n">
-        <v>185.0644927207464</v>
-      </c>
       <c r="O42" t="n">
-        <v>346.5606280711382</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P42" t="n">
-        <v>105.3737184919824</v>
+        <v>298.8777241226614</v>
       </c>
       <c r="Q42" t="n">
         <v>29.47050277894239</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,7 +37946,7 @@
         <v>241.455653679499</v>
       </c>
       <c r="M43" t="n">
-        <v>266.6189575307783</v>
+        <v>266.6189575307785</v>
       </c>
       <c r="N43" t="n">
         <v>263.5464834001958</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>228.2847034222701</v>
+        <v>30.8607660759256</v>
       </c>
       <c r="K44" t="n">
         <v>87.89374920115645</v>
@@ -38031,16 +38031,16 @@
         <v>187.7334429629522</v>
       </c>
       <c r="O44" t="n">
-        <v>346.5606280711377</v>
+        <v>309.9542771438109</v>
       </c>
       <c r="P44" t="n">
         <v>113.6410510947566</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.80398292719772</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R44" t="n">
-        <v>41.97919958420277</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>110.8086683008349</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K45" t="n">
-        <v>69.16119903835425</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="L45" t="n">
-        <v>346.5606280711377</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M45" t="n">
         <v>168.7723149792803</v>
@@ -38110,7 +38110,7 @@
         <v>185.0644927207464</v>
       </c>
       <c r="O45" t="n">
-        <v>346.5606280711377</v>
+        <v>228.6626244751763</v>
       </c>
       <c r="P45" t="n">
         <v>105.3737184919824</v>
@@ -38177,7 +38177,7 @@
         <v>7.039366400895368</v>
       </c>
       <c r="K46" t="n">
-        <v>143.2170323217689</v>
+        <v>143.2170323217709</v>
       </c>
       <c r="L46" t="n">
         <v>241.455653679499</v>
@@ -38192,7 +38192,7 @@
         <v>232.3989919156118</v>
       </c>
       <c r="P46" t="n">
-        <v>177.3583181043309</v>
+        <v>177.3583181043307</v>
       </c>
       <c r="Q46" t="n">
         <v>40.60525931243461</v>
